--- a/data/idaho.xlsx
+++ b/data/idaho.xlsx
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>5/29/2020</t>
+          <t>5/31/2020</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>5/29/2020</t>
+          <t>5/31/2020</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -14393,7 +14393,11 @@
           <t>4/30/2020</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>M,T,W,Th</t>
+        </is>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
@@ -14440,7 +14444,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>5/29/2020</t>
+          <t>5/31/2020</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19936,7 +19940,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>5/29/2020</t>
+          <t>5/31/2020</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -20340,7 +20344,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>5/29/2020</t>
+          <t>5/31/2020</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -22442,7 +22446,11 @@
           <t>3/19/2020</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr"/>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>6/30/2020</t>
+        </is>
+      </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
@@ -26936,7 +26944,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>5/29/2020</t>
+          <t>5/31/2020</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -27343,7 +27351,11 @@
           <t>4/30/2020</t>
         </is>
       </c>
-      <c r="I539" t="inlineStr"/>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>M,T,W,Th</t>
+        </is>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>

--- a/data/idaho.xlsx
+++ b/data/idaho.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P590"/>
+  <dimension ref="A1:N590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,16 +437,6 @@
           <t>dinnerSupperTime</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,12 +481,6 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>44.08765349999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-116.945937</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,12 +525,6 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>43.6658465</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-116.6759206</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -591,12 +569,6 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>42.9161273</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-114.7901355</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,12 +613,6 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>43.6736112</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-116.6836411</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -691,12 +657,6 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>42.9436375</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-112.8437519</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -741,12 +701,6 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>43.5119345</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-112.0370197</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -791,12 +745,6 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>42.3215942</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-111.3026799</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -841,12 +789,6 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>42.884183</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-112.445282</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -891,12 +833,6 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>46.73713799999999</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-117.004063</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -941,12 +877,6 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>46.7389492</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-117.0054811</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -991,12 +921,6 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>46.7433847</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-117.0045428</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1041,12 +965,6 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>46.73508289999999</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-117.0200186</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1091,12 +1009,6 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>43.4933102</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-114.2757848</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1141,12 +1053,6 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>43.6534696</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-116.2522005</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1191,12 +1097,6 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>44.0697921</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-111.4551181</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1241,12 +1141,6 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>47.944781</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-116.699954</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1291,12 +1185,6 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>47.7511441</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-116.827725</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1341,12 +1229,6 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>43.6728175</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-116.7004417</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1391,12 +1273,6 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>43.3022782</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-112.1774832</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1441,12 +1317,6 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>43.4982767</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-114.285291</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1491,12 +1361,6 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>42.8869299</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-112.6357068</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1541,12 +1405,6 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>46.1027203</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-115.9671526</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1591,12 +1449,6 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>46.0623936</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-115.9119936</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1641,12 +1493,6 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>46.07337340000001</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-115.9366287</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1691,12 +1537,6 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>46.07791839999999</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-115.9322841</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1741,12 +1581,6 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>46.08145390000001</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-115.944322</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1791,12 +1625,6 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>46.0866457</v>
-      </c>
-      <c r="P28" t="n">
-        <v>-115.9496567</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1841,12 +1669,6 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>46.0880435</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-115.9742076</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1891,12 +1713,6 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>46.088045</v>
-      </c>
-      <c r="P30" t="n">
-        <v>-115.9749409</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1941,12 +1757,6 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>46.1162605</v>
-      </c>
-      <c r="P31" t="n">
-        <v>-115.9779357</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1991,12 +1801,6 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="n">
-        <v>46.1352196</v>
-      </c>
-      <c r="P32" t="n">
-        <v>-115.9783117</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2041,12 +1845,6 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
-        <v>46.14119549999999</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-115.9847503</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2091,12 +1889,6 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>46.1409777</v>
-      </c>
-      <c r="P34" t="n">
-        <v>-115.9834868</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2141,12 +1933,6 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
-        <v>46.14000540000001</v>
-      </c>
-      <c r="P35" t="n">
-        <v>-115.9832304</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2191,12 +1977,6 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
-        <v>46.1300969</v>
-      </c>
-      <c r="P36" t="n">
-        <v>-115.9849641</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2241,12 +2021,6 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>46.138746</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-115.9813244</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2291,12 +2065,6 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>43.4683585</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-114.2566044</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2341,12 +2109,6 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>47.225532</v>
-      </c>
-      <c r="P39" t="n">
-        <v>-116.7842504</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2391,12 +2153,6 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>42.9365449</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-112.4695654</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2441,12 +2197,6 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>42.5521012</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-114.4624203</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2491,12 +2241,6 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="n">
-        <v>46.0605807</v>
-      </c>
-      <c r="P42" t="n">
-        <v>-115.8034877</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2541,12 +2285,6 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>46.1460995</v>
-      </c>
-      <c r="P43" t="n">
-        <v>-115.975961</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2591,12 +2329,6 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="n">
-        <v>46.07298429999999</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-115.7952949</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2641,12 +2373,6 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="n">
-        <v>46.0774358</v>
-      </c>
-      <c r="P45" t="n">
-        <v>-115.7959557</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2691,12 +2417,6 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>46.1448942</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-115.9779189</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2741,12 +2461,6 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="n">
-        <v>46.07142169999999</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-115.8144601</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2791,12 +2505,6 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="n">
-        <v>46.0774215</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-115.8056816</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2841,12 +2549,6 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="n">
-        <v>46.144141</v>
-      </c>
-      <c r="P49" t="n">
-        <v>-115.969101</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2891,12 +2593,6 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="n">
-        <v>46.1461422</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-115.9744269</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2941,12 +2637,6 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="n">
-        <v>46.063767</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-115.845687</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2991,12 +2681,6 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="n">
-        <v>46.071071</v>
-      </c>
-      <c r="P52" t="n">
-        <v>-115.8480952</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3041,12 +2725,6 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="n">
-        <v>46.07790130000001</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-115.8188814</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3091,12 +2769,6 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>46.0876394</v>
-      </c>
-      <c r="P54" t="n">
-        <v>-115.8618403</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3141,12 +2813,6 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>46.09508049999999</v>
-      </c>
-      <c r="P55" t="n">
-        <v>-115.9033027</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3191,12 +2857,6 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>46.1085921</v>
-      </c>
-      <c r="P56" t="n">
-        <v>-115.9107686</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3241,12 +2901,6 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="n">
-        <v>46.103509</v>
-      </c>
-      <c r="P57" t="n">
-        <v>-115.906747</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3291,12 +2945,6 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>46.09508049999999</v>
-      </c>
-      <c r="P58" t="n">
-        <v>-115.9033027</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3341,12 +2989,6 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="n">
-        <v>42.9240235</v>
-      </c>
-      <c r="P59" t="n">
-        <v>-112.6367123</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3391,12 +3033,6 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="n">
-        <v>42.8655917</v>
-      </c>
-      <c r="P60" t="n">
-        <v>-114.8095512</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3441,12 +3077,6 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="n">
-        <v>42.9820438</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-114.6834663</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3491,12 +3121,6 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="n">
-        <v>43.613248</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-116.53131</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3541,12 +3165,6 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="n">
-        <v>43.1867496</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-112.3427371</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3591,12 +3209,6 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="n">
-        <v>43.6494502</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-114.3483726</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3641,12 +3253,6 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="n">
-        <v>47.698532</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-116.777275</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3695,12 +3301,6 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="n">
-        <v>48.6797868</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-116.325919</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3745,12 +3345,6 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="n">
-        <v>46.8595397</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-116.3935464</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3795,12 +3389,6 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="n">
-        <v>43.5093404</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-111.9659749</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3845,12 +3433,6 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="n">
-        <v>47.6859314</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-116.7749413</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3895,12 +3477,6 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="n">
-        <v>42.52657079999999</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-113.8042436</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3945,12 +3521,6 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="n">
-        <v>47.3274157</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-116.5697104</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3995,12 +3565,6 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="n">
-        <v>47.3729302</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-116.5927819</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4045,12 +3609,6 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="n">
-        <v>47.390823</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-116.654897</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4095,12 +3653,6 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="n">
-        <v>47.3668488</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-116.6775535</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4145,12 +3697,6 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="n">
-        <v>47.3894403</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-116.7140817</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4195,12 +3741,6 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="n">
-        <v>47.417236</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-116.7416359</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4245,12 +3785,6 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="n">
-        <v>47.442842</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-116.769634</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4295,12 +3829,6 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="n">
-        <v>47.4534526</v>
-      </c>
-      <c r="P78" t="n">
-        <v>-116.7873176</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4345,12 +3873,6 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="n">
-        <v>47.453362</v>
-      </c>
-      <c r="P79" t="n">
-        <v>-116.786456</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4395,12 +3917,6 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="n">
-        <v>47.44384960000001</v>
-      </c>
-      <c r="P80" t="n">
-        <v>-116.7185122</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4445,12 +3961,6 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="n">
-        <v>47.4438591</v>
-      </c>
-      <c r="P81" t="n">
-        <v>-116.7235573</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4495,12 +4005,6 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="n">
-        <v>47.444018</v>
-      </c>
-      <c r="P82" t="n">
-        <v>-116.7114829</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4545,12 +4049,6 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="n">
-        <v>47.504588</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-116.543257</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4595,12 +4093,6 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="n">
-        <v>47.478432</v>
-      </c>
-      <c r="P84" t="n">
-        <v>-116.571915</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4645,12 +4137,6 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="n">
-        <v>47.513901</v>
-      </c>
-      <c r="P85" t="n">
-        <v>-116.519106</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4695,12 +4181,6 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="n">
-        <v>47.475891</v>
-      </c>
-      <c r="P86" t="n">
-        <v>-116.604202</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4745,12 +4225,6 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="n">
-        <v>47.456998</v>
-      </c>
-      <c r="P87" t="n">
-        <v>-116.6372301</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4795,12 +4269,6 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="n">
-        <v>47.454127</v>
-      </c>
-      <c r="P88" t="n">
-        <v>-116.638722</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4845,12 +4313,6 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="n">
-        <v>47.4543498</v>
-      </c>
-      <c r="P89" t="n">
-        <v>-116.7854567</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4895,12 +4357,6 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="n">
-        <v>47.4220581</v>
-      </c>
-      <c r="P90" t="n">
-        <v>-116.6277228</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4945,12 +4401,6 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="n">
-        <v>47.42058</v>
-      </c>
-      <c r="P91" t="n">
-        <v>-116.625097</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4995,12 +4445,6 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="n">
-        <v>47.40992540000001</v>
-      </c>
-      <c r="P92" t="n">
-        <v>-116.6624089</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5045,12 +4489,6 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="n">
-        <v>44.095901</v>
-      </c>
-      <c r="P93" t="n">
-        <v>-115.957929</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5095,12 +4533,6 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>44.1078436</v>
-      </c>
-      <c r="P94" t="n">
-        <v>-115.9903659</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5145,12 +4577,6 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="n">
-        <v>44.0930835</v>
-      </c>
-      <c r="P95" t="n">
-        <v>-116.0232821</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5195,12 +4621,6 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="n">
-        <v>44.0919511</v>
-      </c>
-      <c r="P96" t="n">
-        <v>-115.9544145</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5245,12 +4665,6 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="n">
-        <v>44.0749728</v>
-      </c>
-      <c r="P97" t="n">
-        <v>-115.9454196</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5295,12 +4709,6 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="n">
-        <v>44.1173324</v>
-      </c>
-      <c r="P98" t="n">
-        <v>-115.963918</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5345,12 +4753,6 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="n">
-        <v>44.11719859999999</v>
-      </c>
-      <c r="P99" t="n">
-        <v>-115.9744742</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5395,12 +4797,6 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="n">
-        <v>44.1160052</v>
-      </c>
-      <c r="P100" t="n">
-        <v>-115.9711231</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5445,12 +4841,6 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="n">
-        <v>44.1159817</v>
-      </c>
-      <c r="P101" t="n">
-        <v>-115.9711382</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5495,12 +4885,6 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="n">
-        <v>44.1507079</v>
-      </c>
-      <c r="P102" t="n">
-        <v>-115.997032</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5545,12 +4929,6 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="n">
-        <v>44.1074772</v>
-      </c>
-      <c r="P103" t="n">
-        <v>-115.9696029</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5595,12 +4973,6 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="n">
-        <v>44.0903358</v>
-      </c>
-      <c r="P104" t="n">
-        <v>-115.9814834</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5645,12 +5017,6 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="n">
-        <v>44.0809804</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-115.6186743</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5695,12 +5061,6 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="n">
-        <v>44.0809313</v>
-      </c>
-      <c r="P106" t="n">
-        <v>-115.6198621</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5745,12 +5105,6 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="n">
-        <v>44.1126649</v>
-      </c>
-      <c r="P107" t="n">
-        <v>-115.4371619</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5795,12 +5149,6 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="n">
-        <v>44.0750316</v>
-      </c>
-      <c r="P108" t="n">
-        <v>-115.5570001</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5845,12 +5193,6 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="n">
-        <v>44.0783333</v>
-      </c>
-      <c r="P109" t="n">
-        <v>-115.6025</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5895,12 +5237,6 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="n">
-        <v>44.070138</v>
-      </c>
-      <c r="P110" t="n">
-        <v>-115.948404</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5945,12 +5281,6 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="n">
-        <v>44.08795019999999</v>
-      </c>
-      <c r="P111" t="n">
-        <v>-115.9513911</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5995,12 +5325,6 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="n">
-        <v>44.0880866</v>
-      </c>
-      <c r="P112" t="n">
-        <v>-115.9547395</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6045,12 +5369,6 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="n">
-        <v>44.1507079</v>
-      </c>
-      <c r="P113" t="n">
-        <v>-115.997032</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6095,12 +5413,6 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="n">
-        <v>44.153647</v>
-      </c>
-      <c r="P114" t="n">
-        <v>-115.988482</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6145,12 +5457,6 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="n">
-        <v>44.1537872</v>
-      </c>
-      <c r="P115" t="n">
-        <v>-115.9887974</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6195,12 +5501,6 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="n">
-        <v>44.1466039</v>
-      </c>
-      <c r="P116" t="n">
-        <v>-115.9938633</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6245,12 +5545,6 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="n">
-        <v>44.195184</v>
-      </c>
-      <c r="P117" t="n">
-        <v>-115.931974</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6295,12 +5589,6 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="n">
-        <v>44.19314600000001</v>
-      </c>
-      <c r="P118" t="n">
-        <v>-115.947779</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6345,12 +5633,6 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="n">
-        <v>44.19127779999999</v>
-      </c>
-      <c r="P119" t="n">
-        <v>-115.9473631</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6395,12 +5677,6 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="n">
-        <v>44.1907977</v>
-      </c>
-      <c r="P120" t="n">
-        <v>-115.9424969</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6445,12 +5721,6 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="n">
-        <v>44.18857490000001</v>
-      </c>
-      <c r="P121" t="n">
-        <v>-115.9490857</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6495,12 +5765,6 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="n">
-        <v>44.1843545</v>
-      </c>
-      <c r="P122" t="n">
-        <v>-115.950491</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6545,12 +5809,6 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="n">
-        <v>44.1836866</v>
-      </c>
-      <c r="P123" t="n">
-        <v>-115.975047</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6595,12 +5853,6 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="n">
-        <v>44.17385729999999</v>
-      </c>
-      <c r="P124" t="n">
-        <v>-115.9645656</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6645,12 +5897,6 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="n">
-        <v>44.16312140000001</v>
-      </c>
-      <c r="P125" t="n">
-        <v>-115.9604448</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6695,12 +5941,6 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="n">
-        <v>44.1594716</v>
-      </c>
-      <c r="P126" t="n">
-        <v>-115.9652233</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6745,12 +5985,6 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="n">
-        <v>44.15599810000001</v>
-      </c>
-      <c r="P127" t="n">
-        <v>-115.9621035</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6795,12 +6029,6 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="n">
-        <v>44.146229</v>
-      </c>
-      <c r="P128" t="n">
-        <v>-115.9680181</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6845,12 +6073,6 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="n">
-        <v>44.1388685</v>
-      </c>
-      <c r="P129" t="n">
-        <v>-115.9768532</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6895,12 +6117,6 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="n">
-        <v>44.134665</v>
-      </c>
-      <c r="P130" t="n">
-        <v>-115.9745978</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6945,12 +6161,6 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
-      <c r="O131" t="n">
-        <v>44.1155907</v>
-      </c>
-      <c r="P131" t="n">
-        <v>-115.9753154</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6995,12 +6205,6 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="n">
-        <v>44.1121428</v>
-      </c>
-      <c r="P132" t="n">
-        <v>-115.9747522</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7045,12 +6249,6 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="n">
-        <v>44.0909355</v>
-      </c>
-      <c r="P133" t="n">
-        <v>-115.9594491</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7095,12 +6293,6 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="n">
-        <v>43.977416</v>
-      </c>
-      <c r="P134" t="n">
-        <v>-116.195907</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7145,12 +6337,6 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="n">
-        <v>43.8790272</v>
-      </c>
-      <c r="P135" t="n">
-        <v>-116.0703943</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7195,12 +6381,6 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="n">
-        <v>43.9557615</v>
-      </c>
-      <c r="P136" t="n">
-        <v>-116.1377857</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7245,12 +6425,6 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
-      <c r="O137" t="n">
-        <v>47.401469</v>
-      </c>
-      <c r="P137" t="n">
-        <v>-116.921652</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7295,12 +6469,6 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="n">
-        <v>47.3969095</v>
-      </c>
-      <c r="P138" t="n">
-        <v>-116.9172317</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7345,12 +6513,6 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="n">
-        <v>47.3950094</v>
-      </c>
-      <c r="P139" t="n">
-        <v>-116.9156934</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7395,12 +6557,6 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="n">
-        <v>47.3950094</v>
-      </c>
-      <c r="P140" t="n">
-        <v>-116.9156934</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7445,12 +6601,6 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="n">
-        <v>47.32628930000001</v>
-      </c>
-      <c r="P141" t="n">
-        <v>-116.8853398</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7495,12 +6645,6 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="n">
-        <v>47.330759</v>
-      </c>
-      <c r="P142" t="n">
-        <v>-116.877179</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7545,12 +6689,6 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="n">
-        <v>47.3357584</v>
-      </c>
-      <c r="P143" t="n">
-        <v>-116.8815588</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7595,12 +6733,6 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="n">
-        <v>47.16020109999999</v>
-      </c>
-      <c r="P144" t="n">
-        <v>-116.9231788</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7645,12 +6777,6 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="n">
-        <v>47.3125279</v>
-      </c>
-      <c r="P145" t="n">
-        <v>-116.9558323</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7695,12 +6821,6 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="n">
-        <v>47.1459787</v>
-      </c>
-      <c r="P146" t="n">
-        <v>-116.9162023</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7745,12 +6865,6 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="n">
-        <v>42.9458349</v>
-      </c>
-      <c r="P147" t="n">
-        <v>-114.7325428</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7795,12 +6909,6 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="n">
-        <v>47.3986604</v>
-      </c>
-      <c r="P148" t="n">
-        <v>-116.9203701</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7845,12 +6953,6 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="n">
-        <v>43.6390396</v>
-      </c>
-      <c r="P149" t="n">
-        <v>-116.6689815</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7895,12 +6997,6 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="n">
-        <v>42.8684634</v>
-      </c>
-      <c r="P150" t="n">
-        <v>-112.4404557</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7945,12 +7041,6 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="n">
-        <v>47.575558</v>
-      </c>
-      <c r="P151" t="n">
-        <v>-116.413604</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7995,12 +7085,6 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="n">
-        <v>43.3137389</v>
-      </c>
-      <c r="P152" t="n">
-        <v>-113.9431188</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8045,12 +7129,6 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="n">
-        <v>42.5210144</v>
-      </c>
-      <c r="P153" t="n">
-        <v>-114.8748492</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8095,12 +7173,6 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="n">
-        <v>43.563766</v>
-      </c>
-      <c r="P154" t="n">
-        <v>-116.5826064</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8145,12 +7217,6 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="n">
-        <v>43.894567</v>
-      </c>
-      <c r="P155" t="n">
-        <v>-115.904735</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8195,12 +7261,6 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="n">
-        <v>43.5734535</v>
-      </c>
-      <c r="P156" t="n">
-        <v>-116.5619901</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8245,12 +7305,6 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="n">
-        <v>44.5073539</v>
-      </c>
-      <c r="P157" t="n">
-        <v>-114.2300726</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8295,12 +7349,6 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
-      <c r="O158" t="n">
-        <v>43.625926</v>
-      </c>
-      <c r="P158" t="n">
-        <v>-116.380089</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8345,12 +7393,6 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
-      <c r="O159" t="n">
-        <v>48.1470577</v>
-      </c>
-      <c r="P159" t="n">
-        <v>-116.1771981</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8395,12 +7437,6 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
-      <c r="O160" t="n">
-        <v>46.1348231</v>
-      </c>
-      <c r="P160" t="n">
-        <v>-115.9777271</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8445,12 +7481,6 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
-      <c r="O161" t="n">
-        <v>46.138746</v>
-      </c>
-      <c r="P161" t="n">
-        <v>-115.9813244</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8495,12 +7525,6 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
-      <c r="O162" t="n">
-        <v>46.1364131</v>
-      </c>
-      <c r="P162" t="n">
-        <v>-115.981987</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8545,12 +7569,6 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
-      <c r="O163" t="n">
-        <v>46.1461422</v>
-      </c>
-      <c r="P163" t="n">
-        <v>-115.9744269</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8595,12 +7613,6 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
-      <c r="O164" t="n">
-        <v>46.12297419999999</v>
-      </c>
-      <c r="P164" t="n">
-        <v>-115.9451719</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8645,12 +7657,6 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
-      <c r="O165" t="n">
-        <v>46.0937018</v>
-      </c>
-      <c r="P165" t="n">
-        <v>-115.9364797</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8695,12 +7701,6 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
-      <c r="O166" t="n">
-        <v>46.086012</v>
-      </c>
-      <c r="P166" t="n">
-        <v>-115.9145645</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8745,12 +7745,6 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
-      <c r="O167" t="n">
-        <v>46.0752373</v>
-      </c>
-      <c r="P167" t="n">
-        <v>-115.880982</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8795,12 +7789,6 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
-      <c r="O168" t="n">
-        <v>46.064392</v>
-      </c>
-      <c r="P168" t="n">
-        <v>-115.8833215</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8845,12 +7833,6 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
-      <c r="O169" t="n">
-        <v>46.0611346</v>
-      </c>
-      <c r="P169" t="n">
-        <v>-115.8770608</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8895,12 +7877,6 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
-      <c r="O170" t="n">
-        <v>46.1448942</v>
-      </c>
-      <c r="P170" t="n">
-        <v>-115.9779189</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8945,12 +7921,6 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
-      <c r="O171" t="n">
-        <v>46.0573708</v>
-      </c>
-      <c r="P171" t="n">
-        <v>-115.8715131</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8995,12 +7965,6 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
-      <c r="O172" t="n">
-        <v>46.0156667</v>
-      </c>
-      <c r="P172" t="n">
-        <v>-115.9258152</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9045,12 +8009,6 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
-      <c r="O173" t="n">
-        <v>45.859348</v>
-      </c>
-      <c r="P173" t="n">
-        <v>-115.520327</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9095,12 +8053,6 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="n">
-        <v>46.030406</v>
-      </c>
-      <c r="P174" t="n">
-        <v>-115.918219</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9145,12 +8097,6 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="n">
-        <v>46.0343015</v>
-      </c>
-      <c r="P175" t="n">
-        <v>-115.9124684</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9195,12 +8141,6 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="n">
-        <v>46.03737049999999</v>
-      </c>
-      <c r="P176" t="n">
-        <v>-115.9102328</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9245,12 +8185,6 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
-      <c r="O177" t="n">
-        <v>46.030406</v>
-      </c>
-      <c r="P177" t="n">
-        <v>-115.918219</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9295,12 +8229,6 @@
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
-      <c r="O178" t="n">
-        <v>46.034018</v>
-      </c>
-      <c r="P178" t="n">
-        <v>-115.9447597</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9345,12 +8273,6 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
-      <c r="O179" t="n">
-        <v>46.03076590000001</v>
-      </c>
-      <c r="P179" t="n">
-        <v>-115.9217488</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9395,12 +8317,6 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="n">
-        <v>46.1461422</v>
-      </c>
-      <c r="P180" t="n">
-        <v>-115.9744269</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9445,12 +8361,6 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="n">
-        <v>43.504295</v>
-      </c>
-      <c r="P181" t="n">
-        <v>-111.9533557</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9495,12 +8405,6 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="n">
-        <v>43.6188549</v>
-      </c>
-      <c r="P182" t="n">
-        <v>-116.4245769</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9545,12 +8449,6 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="n">
-        <v>43.607534</v>
-      </c>
-      <c r="P183" t="n">
-        <v>-116.4523081</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9595,12 +8493,6 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="n">
-        <v>43.65646479999999</v>
-      </c>
-      <c r="P184" t="n">
-        <v>-111.9094677</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9645,12 +8537,6 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="n">
-        <v>44.734472</v>
-      </c>
-      <c r="P185" t="n">
-        <v>-116.432935</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9695,12 +8581,6 @@
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="n">
-        <v>44.730708</v>
-      </c>
-      <c r="P186" t="n">
-        <v>-116.4310887</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9745,12 +8625,6 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="n">
-        <v>43.6555043</v>
-      </c>
-      <c r="P187" t="n">
-        <v>-114.3496652</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9795,12 +8669,6 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="n">
-        <v>43.6396635</v>
-      </c>
-      <c r="P188" t="n">
-        <v>-116.6624015</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9845,12 +8713,6 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="n">
-        <v>42.8712037</v>
-      </c>
-      <c r="P189" t="n">
-        <v>-113.007774</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9895,12 +8757,6 @@
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="n">
-        <v>42.9534442</v>
-      </c>
-      <c r="P190" t="n">
-        <v>-114.7426503</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9945,12 +8801,6 @@
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="n">
-        <v>44.0703667</v>
-      </c>
-      <c r="P191" t="n">
-        <v>-116.9353396</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9995,12 +8845,6 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="n">
-        <v>43.1882959</v>
-      </c>
-      <c r="P192" t="n">
-        <v>-112.3631898</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10045,12 +8889,6 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
-      <c r="O193" t="n">
-        <v>46.79775420000001</v>
-      </c>
-      <c r="P193" t="n">
-        <v>-116.5589507</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10095,12 +8933,6 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
-      <c r="O194" t="n">
-        <v>42.5183522</v>
-      </c>
-      <c r="P194" t="n">
-        <v>-113.6252463</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10145,12 +8977,6 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
-      <c r="O195" t="n">
-        <v>43.5385359</v>
-      </c>
-      <c r="P195" t="n">
-        <v>-116.2970002</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10195,12 +9021,6 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
-      <c r="O196" t="n">
-        <v>42.9128688</v>
-      </c>
-      <c r="P196" t="n">
-        <v>-114.2632706</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10245,12 +9065,6 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>
-      <c r="O197" t="n">
-        <v>43.0117407</v>
-      </c>
-      <c r="P197" t="n">
-        <v>-114.7317533</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10295,12 +9109,6 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
-      <c r="O198" t="n">
-        <v>44.7307612</v>
-      </c>
-      <c r="P198" t="n">
-        <v>-116.0767435</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10345,12 +9153,6 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
-      <c r="O199" t="n">
-        <v>43.4996569</v>
-      </c>
-      <c r="P199" t="n">
-        <v>-112.0129929</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10395,12 +9197,6 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
-      <c r="O200" t="n">
-        <v>43.7375473</v>
-      </c>
-      <c r="P200" t="n">
-        <v>-111.0909504</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10445,12 +9241,6 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
-      <c r="O201" t="n">
-        <v>43.4902996</v>
-      </c>
-      <c r="P201" t="n">
-        <v>-112.0719962</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10495,12 +9285,6 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
-      <c r="O202" t="n">
-        <v>43.6721659</v>
-      </c>
-      <c r="P202" t="n">
-        <v>-111.920629</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10545,12 +9329,6 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
-      <c r="O203" t="n">
-        <v>43.1368567</v>
-      </c>
-      <c r="P203" t="n">
-        <v>-115.6882391</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10595,12 +9373,6 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
-      <c r="O204" t="n">
-        <v>42.9464075</v>
-      </c>
-      <c r="P204" t="n">
-        <v>-114.6535419</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10645,12 +9417,6 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
-      <c r="O205" t="n">
-        <v>42.6312079</v>
-      </c>
-      <c r="P205" t="n">
-        <v>-113.6786994</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10695,12 +9461,6 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
-      <c r="O206" t="n">
-        <v>42.94273219999999</v>
-      </c>
-      <c r="P206" t="n">
-        <v>-114.704189</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10745,12 +9505,6 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
-      <c r="O207" t="n">
-        <v>42.8980651</v>
-      </c>
-      <c r="P207" t="n">
-        <v>-112.4248289</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10795,12 +9549,6 @@
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
-      <c r="O208" t="n">
-        <v>42.6057946</v>
-      </c>
-      <c r="P208" t="n">
-        <v>-114.2088776</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10845,12 +9593,6 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
-      <c r="O209" t="n">
-        <v>43.6745452</v>
-      </c>
-      <c r="P209" t="n">
-        <v>-116.6913375</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10895,12 +9637,6 @@
       <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
-      <c r="O210" t="n">
-        <v>43.5988346</v>
-      </c>
-      <c r="P210" t="n">
-        <v>-116.3372701</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10945,12 +9681,6 @@
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
-      <c r="O211" t="n">
-        <v>46.6492803</v>
-      </c>
-      <c r="P211" t="n">
-        <v>-116.1977863</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10995,12 +9725,6 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
-      <c r="O212" t="n">
-        <v>42.91594920000001</v>
-      </c>
-      <c r="P212" t="n">
-        <v>-112.4560388</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11045,12 +9769,6 @@
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
-      <c r="O213" t="n">
-        <v>43.4936639</v>
-      </c>
-      <c r="P213" t="n">
-        <v>-112.0277992</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11095,12 +9813,6 @@
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
-      <c r="O214" t="n">
-        <v>43.8714989</v>
-      </c>
-      <c r="P214" t="n">
-        <v>-116.4969581</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11145,12 +9857,6 @@
       <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
-      <c r="O215" t="n">
-        <v>43.5772567</v>
-      </c>
-      <c r="P215" t="n">
-        <v>-116.5351591</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11195,12 +9901,6 @@
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
-      <c r="O216" t="n">
-        <v>42.9253</v>
-      </c>
-      <c r="P216" t="n">
-        <v>-114.7121599</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11245,12 +9945,6 @@
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
-      <c r="O217" t="n">
-        <v>44.69848959999999</v>
-      </c>
-      <c r="P217" t="n">
-        <v>-116.4202378</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11295,12 +9989,6 @@
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr"/>
-      <c r="O218" t="n">
-        <v>43.5830692</v>
-      </c>
-      <c r="P218" t="n">
-        <v>-112.0146419</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11345,12 +10033,6 @@
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr"/>
-      <c r="O219" t="n">
-        <v>43.4978259</v>
-      </c>
-      <c r="P219" t="n">
-        <v>-111.985047</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11395,12 +10077,6 @@
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
-      <c r="O220" t="n">
-        <v>45.9246876</v>
-      </c>
-      <c r="P220" t="n">
-        <v>-116.1321184</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11445,12 +10121,6 @@
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
-      <c r="O221" t="n">
-        <v>48.28280179999999</v>
-      </c>
-      <c r="P221" t="n">
-        <v>-116.5717624</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11495,12 +10165,6 @@
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
-      <c r="O222" t="n">
-        <v>43.70219480000001</v>
-      </c>
-      <c r="P222" t="n">
-        <v>-116.7126715</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11545,12 +10209,6 @@
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
-      <c r="O223" t="n">
-        <v>47.67711329999999</v>
-      </c>
-      <c r="P223" t="n">
-        <v>-116.7553046</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11595,12 +10253,6 @@
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
-      <c r="O224" t="n">
-        <v>42.5669689</v>
-      </c>
-      <c r="P224" t="n">
-        <v>-114.6151956</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11649,12 +10301,6 @@
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr"/>
-      <c r="O225" t="n">
-        <v>48.8491951</v>
-      </c>
-      <c r="P225" t="n">
-        <v>-116.2885301</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11699,12 +10345,6 @@
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
-      <c r="O226" t="n">
-        <v>43.0336267</v>
-      </c>
-      <c r="P226" t="n">
-        <v>-112.4387654</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11749,12 +10389,6 @@
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
-      <c r="O227" t="n">
-        <v>47.470285</v>
-      </c>
-      <c r="P227" t="n">
-        <v>-115.7421372</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11799,12 +10433,6 @@
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
-      <c r="O228" t="n">
-        <v>43.5706128</v>
-      </c>
-      <c r="P228" t="n">
-        <v>-116.2822464</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11849,12 +10477,6 @@
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
-      <c r="O229" t="n">
-        <v>43.6391214</v>
-      </c>
-      <c r="P229" t="n">
-        <v>-116.3298976</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11899,12 +10521,6 @@
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr"/>
-      <c r="O230" t="n">
-        <v>43.4769487</v>
-      </c>
-      <c r="P230" t="n">
-        <v>-114.2678156</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11949,12 +10565,6 @@
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr"/>
-      <c r="O231" t="n">
-        <v>42.766182</v>
-      </c>
-      <c r="P231" t="n">
-        <v>-112.787683</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11999,12 +10609,6 @@
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
-      <c r="O232" t="n">
-        <v>43.5892916</v>
-      </c>
-      <c r="P232" t="n">
-        <v>-116.193019</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12049,12 +10653,6 @@
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
-      <c r="O233" t="n">
-        <v>46.5519156</v>
-      </c>
-      <c r="P233" t="n">
-        <v>-116.9294594</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12099,12 +10697,6 @@
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
-      <c r="O234" t="n">
-        <v>42.4781446</v>
-      </c>
-      <c r="P234" t="n">
-        <v>-111.36961</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12149,12 +10741,6 @@
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr"/>
-      <c r="O235" t="n">
-        <v>47.4675164</v>
-      </c>
-      <c r="P235" t="n">
-        <v>-115.7348579</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12199,12 +10785,6 @@
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr"/>
-      <c r="O236" t="n">
-        <v>42.95685779999999</v>
-      </c>
-      <c r="P236" t="n">
-        <v>-115.3085505</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12249,12 +10829,6 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr"/>
-      <c r="O237" t="n">
-        <v>42.9376674</v>
-      </c>
-      <c r="P237" t="n">
-        <v>-114.7260364</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12299,12 +10873,6 @@
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
-      <c r="O238" t="n">
-        <v>42.9385072</v>
-      </c>
-      <c r="P238" t="n">
-        <v>-114.7260607</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12349,12 +10917,6 @@
       <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr"/>
-      <c r="O239" t="n">
-        <v>42.9385084</v>
-      </c>
-      <c r="P239" t="n">
-        <v>-114.7250445</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12399,12 +10961,6 @@
       <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr"/>
-      <c r="O240" t="n">
-        <v>42.7860226</v>
-      </c>
-      <c r="P240" t="n">
-        <v>-112.8544377</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12449,12 +11005,6 @@
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
-      <c r="O241" t="n">
-        <v>43.5918796</v>
-      </c>
-      <c r="P241" t="n">
-        <v>-116.2620938</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -12499,12 +11049,6 @@
       <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
-      <c r="O242" t="n">
-        <v>42.57030899999999</v>
-      </c>
-      <c r="P242" t="n">
-        <v>-111.7313353</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12549,12 +11093,6 @@
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
-      <c r="O243" t="n">
-        <v>45.9234334</v>
-      </c>
-      <c r="P243" t="n">
-        <v>-116.1265649</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -12599,12 +11137,6 @@
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
-      <c r="O244" t="n">
-        <v>42.8777158</v>
-      </c>
-      <c r="P244" t="n">
-        <v>-112.4371276</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12649,12 +11181,6 @@
       <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr"/>
-      <c r="O245" t="n">
-        <v>43.2206999</v>
-      </c>
-      <c r="P245" t="n">
-        <v>-112.3714801</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12699,12 +11225,6 @@
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
-      <c r="O246" t="n">
-        <v>43.1333347</v>
-      </c>
-      <c r="P246" t="n">
-        <v>-115.6895576</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12749,12 +11269,6 @@
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr"/>
-      <c r="O247" t="n">
-        <v>42.8184533</v>
-      </c>
-      <c r="P247" t="n">
-        <v>-114.9010603</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12799,12 +11313,6 @@
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
-      <c r="O248" t="n">
-        <v>43.5158522</v>
-      </c>
-      <c r="P248" t="n">
-        <v>-114.3101775</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12849,12 +11357,6 @@
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
-      <c r="O249" t="n">
-        <v>43.9254721</v>
-      </c>
-      <c r="P249" t="n">
-        <v>-112.2085978</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12899,12 +11401,6 @@
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
-      <c r="O250" t="n">
-        <v>42.528104</v>
-      </c>
-      <c r="P250" t="n">
-        <v>-114.301147</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -12949,12 +11445,6 @@
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
-      <c r="O251" t="n">
-        <v>43.6474658</v>
-      </c>
-      <c r="P251" t="n">
-        <v>-116.6568894</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -12999,12 +11489,6 @@
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr"/>
-      <c r="O252" t="n">
-        <v>42.5732613</v>
-      </c>
-      <c r="P252" t="n">
-        <v>-114.4690613</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13049,12 +11533,6 @@
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr"/>
-      <c r="O253" t="n">
-        <v>47.4713363</v>
-      </c>
-      <c r="P253" t="n">
-        <v>-115.920942</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13099,12 +11577,6 @@
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
-      <c r="O254" t="n">
-        <v>43.5818555</v>
-      </c>
-      <c r="P254" t="n">
-        <v>-116.2108255</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13149,12 +11621,6 @@
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr"/>
-      <c r="O255" t="n">
-        <v>43.4839</v>
-      </c>
-      <c r="P255" t="n">
-        <v>-112.034887</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13199,12 +11665,6 @@
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr"/>
-      <c r="O256" t="n">
-        <v>42.894982</v>
-      </c>
-      <c r="P256" t="n">
-        <v>-112.473542</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13249,12 +11709,6 @@
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr"/>
-      <c r="O257" t="n">
-        <v>42.5910276</v>
-      </c>
-      <c r="P257" t="n">
-        <v>-114.1359308</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13299,12 +11753,6 @@
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr"/>
-      <c r="O258" t="n">
-        <v>44.9072356</v>
-      </c>
-      <c r="P258" t="n">
-        <v>-116.1024844</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13349,12 +11797,6 @@
       <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr"/>
-      <c r="O259" t="n">
-        <v>46.80119089999999</v>
-      </c>
-      <c r="P259" t="n">
-        <v>-116.4705541</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13399,12 +11841,6 @@
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr"/>
-      <c r="O260" t="n">
-        <v>43.9713755</v>
-      </c>
-      <c r="P260" t="n">
-        <v>-111.687069</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13449,12 +11885,6 @@
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr"/>
-      <c r="O261" t="n">
-        <v>43.6345761</v>
-      </c>
-      <c r="P261" t="n">
-        <v>-116.6766259</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -13499,12 +11929,6 @@
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr"/>
-      <c r="O262" t="n">
-        <v>47.31606470000001</v>
-      </c>
-      <c r="P262" t="n">
-        <v>-116.575167</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13549,12 +11973,6 @@
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr"/>
-      <c r="O263" t="n">
-        <v>46.13872689999999</v>
-      </c>
-      <c r="P263" t="n">
-        <v>-115.9790426</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13599,12 +12017,6 @@
       <c r="L264" t="inlineStr"/>
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr"/>
-      <c r="O264" t="n">
-        <v>46.1484435</v>
-      </c>
-      <c r="P264" t="n">
-        <v>-115.9820463</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13649,12 +12061,6 @@
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr"/>
-      <c r="O265" t="n">
-        <v>46.15692199999999</v>
-      </c>
-      <c r="P265" t="n">
-        <v>-115.991192</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13699,12 +12105,6 @@
       <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr"/>
-      <c r="O266" t="n">
-        <v>46.2290472</v>
-      </c>
-      <c r="P266" t="n">
-        <v>-116.0292728</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13749,12 +12149,6 @@
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr"/>
-      <c r="O267" t="n">
-        <v>46.14880669999999</v>
-      </c>
-      <c r="P267" t="n">
-        <v>-115.9810576</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13799,12 +12193,6 @@
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr"/>
-      <c r="O268" t="n">
-        <v>46.14880669999999</v>
-      </c>
-      <c r="P268" t="n">
-        <v>-115.9810576</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13849,12 +12237,6 @@
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr"/>
-      <c r="O269" t="n">
-        <v>46.14880669999999</v>
-      </c>
-      <c r="P269" t="n">
-        <v>-115.9810576</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13899,12 +12281,6 @@
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr"/>
-      <c r="O270" t="n">
-        <v>46.14880669999999</v>
-      </c>
-      <c r="P270" t="n">
-        <v>-115.9810576</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13949,12 +12325,6 @@
       <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr"/>
-      <c r="O271" t="n">
-        <v>46.14880669999999</v>
-      </c>
-      <c r="P271" t="n">
-        <v>-115.9810576</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13999,12 +12369,6 @@
       <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr"/>
-      <c r="O272" t="n">
-        <v>46.1365389</v>
-      </c>
-      <c r="P272" t="n">
-        <v>-115.7514991</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14049,12 +12413,6 @@
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr"/>
-      <c r="O273" t="n">
-        <v>46.143381</v>
-      </c>
-      <c r="P273" t="n">
-        <v>-115.596827</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14099,12 +12457,6 @@
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr"/>
-      <c r="O274" t="n">
-        <v>47.5495277</v>
-      </c>
-      <c r="P274" t="n">
-        <v>-116.2964996</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14149,12 +12501,6 @@
       <c r="L275" t="inlineStr"/>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr"/>
-      <c r="O275" t="n">
-        <v>43.5839057</v>
-      </c>
-      <c r="P275" t="n">
-        <v>-116.241784</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14199,12 +12545,6 @@
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr"/>
-      <c r="O276" t="n">
-        <v>42.7751121</v>
-      </c>
-      <c r="P276" t="n">
-        <v>-112.8563225</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14249,12 +12589,6 @@
       <c r="L277" t="inlineStr"/>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr"/>
-      <c r="O277" t="n">
-        <v>43.4754059</v>
-      </c>
-      <c r="P277" t="n">
-        <v>-111.972332</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14299,12 +12633,6 @@
       <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr"/>
-      <c r="O278" t="n">
-        <v>42.3563628</v>
-      </c>
-      <c r="P278" t="n">
-        <v>-114.5893022</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14349,12 +12677,6 @@
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr"/>
-      <c r="O279" t="n">
-        <v>43.5128508</v>
-      </c>
-      <c r="P279" t="n">
-        <v>-112.0062449</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14403,12 +12725,6 @@
       <c r="L280" t="inlineStr"/>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr"/>
-      <c r="O280" t="n">
-        <v>43.62102790000001</v>
-      </c>
-      <c r="P280" t="n">
-        <v>-116.9422728</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14457,12 +12773,6 @@
       <c r="L281" t="inlineStr"/>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr"/>
-      <c r="O281" t="n">
-        <v>48.7263285</v>
-      </c>
-      <c r="P281" t="n">
-        <v>-116.1885283</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -14507,12 +12817,6 @@
       <c r="L282" t="inlineStr"/>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr"/>
-      <c r="O282" t="n">
-        <v>43.611556</v>
-      </c>
-      <c r="P282" t="n">
-        <v>-116.3031148</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -14557,12 +12861,6 @@
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="inlineStr"/>
-      <c r="O283" t="n">
-        <v>43.5884921</v>
-      </c>
-      <c r="P283" t="n">
-        <v>-116.3066888</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14607,12 +12905,6 @@
       <c r="L284" t="inlineStr"/>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr"/>
-      <c r="O284" t="n">
-        <v>43.5954674</v>
-      </c>
-      <c r="P284" t="n">
-        <v>-116.3053515</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14657,12 +12949,6 @@
       <c r="L285" t="inlineStr"/>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr"/>
-      <c r="O285" t="n">
-        <v>43.5993541</v>
-      </c>
-      <c r="P285" t="n">
-        <v>-116.2956575</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14707,12 +12993,6 @@
       <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr"/>
-      <c r="O286" t="n">
-        <v>43.611556</v>
-      </c>
-      <c r="P286" t="n">
-        <v>-116.3031148</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14757,12 +13037,6 @@
       <c r="L287" t="inlineStr"/>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr"/>
-      <c r="O287" t="n">
-        <v>43.595045</v>
-      </c>
-      <c r="P287" t="n">
-        <v>-116.2890692</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -14807,12 +13081,6 @@
       <c r="L288" t="inlineStr"/>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr"/>
-      <c r="O288" t="n">
-        <v>43.5993553</v>
-      </c>
-      <c r="P288" t="n">
-        <v>-116.2946951</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14857,12 +13125,6 @@
       <c r="L289" t="inlineStr"/>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr"/>
-      <c r="O289" t="n">
-        <v>43.6158651</v>
-      </c>
-      <c r="P289" t="n">
-        <v>-116.2941071</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14907,12 +13169,6 @@
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr"/>
-      <c r="O290" t="n">
-        <v>45.0569825</v>
-      </c>
-      <c r="P290" t="n">
-        <v>-116.6515265</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -14957,12 +13213,6 @@
       <c r="L291" t="inlineStr"/>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr"/>
-      <c r="O291" t="n">
-        <v>43.9089209</v>
-      </c>
-      <c r="P291" t="n">
-        <v>-116.2014029</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15007,12 +13257,6 @@
       <c r="L292" t="inlineStr"/>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr"/>
-      <c r="O292" t="n">
-        <v>43.91388449999999</v>
-      </c>
-      <c r="P292" t="n">
-        <v>-116.1979415</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15057,12 +13301,6 @@
       <c r="L293" t="inlineStr"/>
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr"/>
-      <c r="O293" t="n">
-        <v>42.70264</v>
-      </c>
-      <c r="P293" t="n">
-        <v>-113.0618721</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15107,12 +13345,6 @@
       <c r="L294" t="inlineStr"/>
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr"/>
-      <c r="O294" t="n">
-        <v>43.1800827</v>
-      </c>
-      <c r="P294" t="n">
-        <v>-112.3449204</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15157,12 +13389,6 @@
       <c r="L295" t="inlineStr"/>
       <c r="M295" t="inlineStr"/>
       <c r="N295" t="inlineStr"/>
-      <c r="O295" t="n">
-        <v>42.5755231</v>
-      </c>
-      <c r="P295" t="n">
-        <v>-114.4879277</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15207,12 +13433,6 @@
       <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr"/>
-      <c r="O296" t="n">
-        <v>44.0747455</v>
-      </c>
-      <c r="P296" t="n">
-        <v>-116.9193484</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15257,12 +13477,6 @@
       <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr"/>
-      <c r="O297" t="n">
-        <v>48.1790015</v>
-      </c>
-      <c r="P297" t="n">
-        <v>-117.0347038</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15307,12 +13521,6 @@
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr"/>
-      <c r="O298" t="n">
-        <v>43.1899982</v>
-      </c>
-      <c r="P298" t="n">
-        <v>-112.3392225</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15357,12 +13565,6 @@
       <c r="L299" t="inlineStr"/>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr"/>
-      <c r="O299" t="n">
-        <v>43.633178</v>
-      </c>
-      <c r="P299" t="n">
-        <v>-116.634976</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15407,12 +13609,6 @@
       <c r="L300" t="inlineStr"/>
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr"/>
-      <c r="O300" t="n">
-        <v>46.72011800000001</v>
-      </c>
-      <c r="P300" t="n">
-        <v>-116.9966133</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -15457,12 +13653,6 @@
       <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr"/>
-      <c r="O301" t="n">
-        <v>46.7173363</v>
-      </c>
-      <c r="P301" t="n">
-        <v>-116.9860868</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -15507,12 +13697,6 @@
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="inlineStr"/>
-      <c r="O302" t="n">
-        <v>46.72167289999999</v>
-      </c>
-      <c r="P302" t="n">
-        <v>-116.989986</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -15557,12 +13741,6 @@
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr"/>
-      <c r="O303" t="n">
-        <v>46.7164937</v>
-      </c>
-      <c r="P303" t="n">
-        <v>-116.9968804</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -15607,12 +13785,6 @@
       <c r="L304" t="inlineStr"/>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr"/>
-      <c r="O304" t="n">
-        <v>42.820571</v>
-      </c>
-      <c r="P304" t="n">
-        <v>-112.40849</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -15657,12 +13829,6 @@
       <c r="L305" t="inlineStr"/>
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr"/>
-      <c r="O305" t="n">
-        <v>43.5553471</v>
-      </c>
-      <c r="P305" t="n">
-        <v>-116.5839153</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -15707,12 +13873,6 @@
       <c r="L306" t="inlineStr"/>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="inlineStr"/>
-      <c r="O306" t="n">
-        <v>42.865333</v>
-      </c>
-      <c r="P306" t="n">
-        <v>-112.4620388</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -15757,12 +13917,6 @@
       <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr"/>
-      <c r="O307" t="n">
-        <v>42.7794987</v>
-      </c>
-      <c r="P307" t="n">
-        <v>-112.854579</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -15807,12 +13961,6 @@
       <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr"/>
-      <c r="O308" t="n">
-        <v>43.602124</v>
-      </c>
-      <c r="P308" t="n">
-        <v>-116.2271941</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -15857,12 +14005,6 @@
       <c r="L309" t="inlineStr"/>
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr"/>
-      <c r="O309" t="n">
-        <v>42.8617462</v>
-      </c>
-      <c r="P309" t="n">
-        <v>-112.4700369</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -15907,12 +14049,6 @@
       <c r="L310" t="inlineStr"/>
       <c r="M310" t="inlineStr"/>
       <c r="N310" t="inlineStr"/>
-      <c r="O310" t="n">
-        <v>43.6079996</v>
-      </c>
-      <c r="P310" t="n">
-        <v>-116.2459662</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -15957,12 +14093,6 @@
       <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr"/>
-      <c r="O311" t="n">
-        <v>43.6151956</v>
-      </c>
-      <c r="P311" t="n">
-        <v>-116.2384957</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16007,12 +14137,6 @@
       <c r="L312" t="inlineStr"/>
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr"/>
-      <c r="O312" t="n">
-        <v>43.6043239</v>
-      </c>
-      <c r="P312" t="n">
-        <v>-116.2384941</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16057,12 +14181,6 @@
       <c r="L313" t="inlineStr"/>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="inlineStr"/>
-      <c r="O313" t="n">
-        <v>43.602124</v>
-      </c>
-      <c r="P313" t="n">
-        <v>-116.2271941</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16107,12 +14225,6 @@
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr"/>
-      <c r="O314" t="n">
-        <v>43.5961536</v>
-      </c>
-      <c r="P314" t="n">
-        <v>-116.2390612</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16153,12 +14265,6 @@
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr"/>
-      <c r="O315" t="n">
-        <v>46.4080311</v>
-      </c>
-      <c r="P315" t="n">
-        <v>-117.0087414</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16203,12 +14309,6 @@
       <c r="L316" t="inlineStr"/>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr"/>
-      <c r="O316" t="n">
-        <v>42.7388351</v>
-      </c>
-      <c r="P316" t="n">
-        <v>-114.5020805</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16253,12 +14353,6 @@
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr"/>
-      <c r="O317" t="n">
-        <v>42.733868</v>
-      </c>
-      <c r="P317" t="n">
-        <v>-114.5261391</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16303,12 +14397,6 @@
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr"/>
-      <c r="O318" t="n">
-        <v>42.5152386</v>
-      </c>
-      <c r="P318" t="n">
-        <v>-113.8036133</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -16353,12 +14441,6 @@
       <c r="L319" t="inlineStr"/>
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr"/>
-      <c r="O319" t="n">
-        <v>46.5791193</v>
-      </c>
-      <c r="P319" t="n">
-        <v>-116.7083187</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -16403,12 +14485,6 @@
       <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr"/>
-      <c r="O320" t="n">
-        <v>47.54358879999999</v>
-      </c>
-      <c r="P320" t="n">
-        <v>-116.133794</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -16453,12 +14529,6 @@
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr"/>
-      <c r="O321" t="n">
-        <v>46.6192395</v>
-      </c>
-      <c r="P321" t="n">
-        <v>-116.6447517</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -16503,12 +14573,6 @@
       <c r="L322" t="inlineStr"/>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr"/>
-      <c r="O322" t="n">
-        <v>44.0661201</v>
-      </c>
-      <c r="P322" t="n">
-        <v>-116.9273741</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -16553,12 +14617,6 @@
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr"/>
-      <c r="O323" t="n">
-        <v>43.82472</v>
-      </c>
-      <c r="P323" t="n">
-        <v>-111.799825</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -16603,12 +14661,6 @@
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr"/>
-      <c r="O324" t="n">
-        <v>42.5315449</v>
-      </c>
-      <c r="P324" t="n">
-        <v>-114.3663998</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -16653,12 +14705,6 @@
       <c r="L325" t="inlineStr"/>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr"/>
-      <c r="O325" t="n">
-        <v>47.5481227</v>
-      </c>
-      <c r="P325" t="n">
-        <v>-116.2724632</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -16703,12 +14749,6 @@
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr"/>
-      <c r="O326" t="n">
-        <v>43.622485</v>
-      </c>
-      <c r="P326" t="n">
-        <v>-116.25529</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -16753,12 +14793,6 @@
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr"/>
-      <c r="O327" t="n">
-        <v>43.609469</v>
-      </c>
-      <c r="P327" t="n">
-        <v>-116.259869</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -16803,12 +14837,6 @@
       <c r="L328" t="inlineStr"/>
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr"/>
-      <c r="O328" t="n">
-        <v>43.6170593</v>
-      </c>
-      <c r="P328" t="n">
-        <v>-116.2662004</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -16853,12 +14881,6 @@
       <c r="L329" t="inlineStr"/>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr"/>
-      <c r="O329" t="n">
-        <v>43.616876</v>
-      </c>
-      <c r="P329" t="n">
-        <v>-116.2611504</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -16903,12 +14925,6 @@
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr"/>
-      <c r="O330" t="n">
-        <v>43.622485</v>
-      </c>
-      <c r="P330" t="n">
-        <v>-116.25529</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -16953,12 +14969,6 @@
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="inlineStr"/>
       <c r="N331" t="inlineStr"/>
-      <c r="O331" t="n">
-        <v>43.6233412</v>
-      </c>
-      <c r="P331" t="n">
-        <v>-116.2661557</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -17003,12 +15013,6 @@
       <c r="L332" t="inlineStr"/>
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr"/>
-      <c r="O332" t="n">
-        <v>48.3114554</v>
-      </c>
-      <c r="P332" t="n">
-        <v>-116.517407</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -17053,12 +15057,6 @@
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr"/>
-      <c r="O333" t="n">
-        <v>47.40038699999999</v>
-      </c>
-      <c r="P333" t="n">
-        <v>-116.671261</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -17103,12 +15101,6 @@
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr"/>
-      <c r="O334" t="n">
-        <v>43.5004689</v>
-      </c>
-      <c r="P334" t="n">
-        <v>-116.4062976</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17153,12 +15145,6 @@
       <c r="L335" t="inlineStr"/>
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr"/>
-      <c r="O335" t="n">
-        <v>47.8150147</v>
-      </c>
-      <c r="P335" t="n">
-        <v>-116.8862666</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -17203,12 +15189,6 @@
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr"/>
-      <c r="O336" t="n">
-        <v>47.6820958</v>
-      </c>
-      <c r="P336" t="n">
-        <v>-116.7659667</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -17253,12 +15233,6 @@
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="inlineStr"/>
-      <c r="O337" t="n">
-        <v>47.3328657</v>
-      </c>
-      <c r="P337" t="n">
-        <v>-116.8925126</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -17303,12 +15277,6 @@
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr"/>
-      <c r="O338" t="n">
-        <v>42.6090275</v>
-      </c>
-      <c r="P338" t="n">
-        <v>-114.1480211</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -17353,12 +15321,6 @@
       <c r="L339" t="inlineStr"/>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
-      <c r="O339" t="n">
-        <v>43.5963828</v>
-      </c>
-      <c r="P339" t="n">
-        <v>-116.6498024</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -17403,12 +15365,6 @@
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr"/>
-      <c r="O340" t="n">
-        <v>46.3993167</v>
-      </c>
-      <c r="P340" t="n">
-        <v>-116.8038788</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17453,12 +15409,6 @@
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr"/>
-      <c r="O341" t="n">
-        <v>44.1313052</v>
-      </c>
-      <c r="P341" t="n">
-        <v>-116.9099605</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -17503,12 +15453,6 @@
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr"/>
-      <c r="O342" t="n">
-        <v>45.927307</v>
-      </c>
-      <c r="P342" t="n">
-        <v>-116.1118524</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -17553,12 +15497,6 @@
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr"/>
-      <c r="O343" t="n">
-        <v>46.7332946</v>
-      </c>
-      <c r="P343" t="n">
-        <v>-116.9853418</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -17603,12 +15541,6 @@
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr"/>
-      <c r="O344" t="n">
-        <v>43.6262729</v>
-      </c>
-      <c r="P344" t="n">
-        <v>-116.6876452</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -17653,12 +15585,6 @@
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr"/>
-      <c r="O345" t="n">
-        <v>42.8901247</v>
-      </c>
-      <c r="P345" t="n">
-        <v>-112.4605468</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -17703,12 +15629,6 @@
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
-      <c r="O346" t="n">
-        <v>43.610214</v>
-      </c>
-      <c r="P346" t="n">
-        <v>-116.341619</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17753,12 +15673,6 @@
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr"/>
-      <c r="O347" t="n">
-        <v>43.69095350000001</v>
-      </c>
-      <c r="P347" t="n">
-        <v>-114.3874066</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17803,12 +15717,6 @@
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="inlineStr"/>
-      <c r="O348" t="n">
-        <v>43.6581005</v>
-      </c>
-      <c r="P348" t="n">
-        <v>-116.6888494</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17853,12 +15761,6 @@
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="inlineStr"/>
-      <c r="O349" t="n">
-        <v>42.5618484</v>
-      </c>
-      <c r="P349" t="n">
-        <v>-114.475752</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -17903,12 +15805,6 @@
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="inlineStr"/>
-      <c r="O350" t="n">
-        <v>43.4901995</v>
-      </c>
-      <c r="P350" t="n">
-        <v>-112.0078544</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -17953,12 +15849,6 @@
       <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr"/>
-      <c r="O351" t="n">
-        <v>44.1794353</v>
-      </c>
-      <c r="P351" t="n">
-        <v>-112.231159</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -18003,12 +15893,6 @@
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="inlineStr"/>
-      <c r="O352" t="n">
-        <v>42.870195</v>
-      </c>
-      <c r="P352" t="n">
-        <v>-112.462608</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -18053,12 +15937,6 @@
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="inlineStr"/>
-      <c r="O353" t="n">
-        <v>46.0914067</v>
-      </c>
-      <c r="P353" t="n">
-        <v>-115.9764749</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -18103,12 +15981,6 @@
       <c r="L354" t="inlineStr"/>
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="inlineStr"/>
-      <c r="O354" t="n">
-        <v>46.102583</v>
-      </c>
-      <c r="P354" t="n">
-        <v>-115.981458</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -18153,12 +16025,6 @@
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr"/>
-      <c r="O355" t="n">
-        <v>46.0915589</v>
-      </c>
-      <c r="P355" t="n">
-        <v>-115.9762528</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -18203,12 +16069,6 @@
       <c r="L356" t="inlineStr"/>
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr"/>
-      <c r="O356" t="n">
-        <v>46.0917152</v>
-      </c>
-      <c r="P356" t="n">
-        <v>-116.0072343</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -18253,12 +16113,6 @@
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="inlineStr"/>
       <c r="N357" t="inlineStr"/>
-      <c r="O357" t="n">
-        <v>46.0464119</v>
-      </c>
-      <c r="P357" t="n">
-        <v>-115.9809749</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -18303,12 +16157,6 @@
       <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr"/>
       <c r="N358" t="inlineStr"/>
-      <c r="O358" t="n">
-        <v>46.0444279</v>
-      </c>
-      <c r="P358" t="n">
-        <v>-115.9803955</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -18353,12 +16201,6 @@
       <c r="L359" t="inlineStr"/>
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="inlineStr"/>
-      <c r="O359" t="n">
-        <v>46.031757</v>
-      </c>
-      <c r="P359" t="n">
-        <v>-116.002406</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -18403,12 +16245,6 @@
       <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr"/>
-      <c r="O360" t="n">
-        <v>46.0267862</v>
-      </c>
-      <c r="P360" t="n">
-        <v>-115.995628</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -18453,12 +16289,6 @@
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr"/>
-      <c r="O361" t="n">
-        <v>42.9408239</v>
-      </c>
-      <c r="P361" t="n">
-        <v>-114.7136536</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -18503,12 +16333,6 @@
       <c r="L362" t="inlineStr"/>
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr"/>
-      <c r="O362" t="n">
-        <v>43.9078942</v>
-      </c>
-      <c r="P362" t="n">
-        <v>-113.608968</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -18553,12 +16377,6 @@
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="inlineStr"/>
-      <c r="O363" t="n">
-        <v>43.8058092</v>
-      </c>
-      <c r="P363" t="n">
-        <v>-111.8241263</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -18603,12 +16421,6 @@
       <c r="L364" t="inlineStr"/>
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr"/>
-      <c r="O364" t="n">
-        <v>43.8290258</v>
-      </c>
-      <c r="P364" t="n">
-        <v>-111.7694883</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -18653,12 +16465,6 @@
       <c r="L365" t="inlineStr"/>
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="inlineStr"/>
-      <c r="O365" t="n">
-        <v>43.8105158</v>
-      </c>
-      <c r="P365" t="n">
-        <v>-111.8011575</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -18703,12 +16509,6 @@
       <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr"/>
-      <c r="O366" t="n">
-        <v>43.6505628</v>
-      </c>
-      <c r="P366" t="n">
-        <v>-116.2316567</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -18753,12 +16553,6 @@
       <c r="L367" t="inlineStr"/>
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="inlineStr"/>
-      <c r="O367" t="n">
-        <v>42.9251944</v>
-      </c>
-      <c r="P367" t="n">
-        <v>-114.7159507</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -18803,12 +16597,6 @@
       <c r="L368" t="inlineStr"/>
       <c r="M368" t="inlineStr"/>
       <c r="N368" t="inlineStr"/>
-      <c r="O368" t="n">
-        <v>42.9248747</v>
-      </c>
-      <c r="P368" t="n">
-        <v>-114.7128254</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -18853,12 +16641,6 @@
       <c r="L369" t="inlineStr"/>
       <c r="M369" t="inlineStr"/>
       <c r="N369" t="inlineStr"/>
-      <c r="O369" t="n">
-        <v>42.1948306</v>
-      </c>
-      <c r="P369" t="n">
-        <v>-112.2518401</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -18903,12 +16685,6 @@
       <c r="L370" t="inlineStr"/>
       <c r="M370" t="inlineStr"/>
       <c r="N370" t="inlineStr"/>
-      <c r="O370" t="n">
-        <v>43.6424491</v>
-      </c>
-      <c r="P370" t="n">
-        <v>-116.7040457</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -18953,12 +16729,6 @@
       <c r="L371" t="inlineStr"/>
       <c r="M371" t="inlineStr"/>
       <c r="N371" t="inlineStr"/>
-      <c r="O371" t="n">
-        <v>43.5450463</v>
-      </c>
-      <c r="P371" t="n">
-        <v>-116.8084297</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -19003,12 +16773,6 @@
       <c r="L372" t="inlineStr"/>
       <c r="M372" t="inlineStr"/>
       <c r="N372" t="inlineStr"/>
-      <c r="O372" t="n">
-        <v>43.54275639999999</v>
-      </c>
-      <c r="P372" t="n">
-        <v>-116.8127739</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -19053,12 +16817,6 @@
       <c r="L373" t="inlineStr"/>
       <c r="M373" t="inlineStr"/>
       <c r="N373" t="inlineStr"/>
-      <c r="O373" t="n">
-        <v>43.54347810000001</v>
-      </c>
-      <c r="P373" t="n">
-        <v>-116.8122275</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -19103,12 +16861,6 @@
       <c r="L374" t="inlineStr"/>
       <c r="M374" t="inlineStr"/>
       <c r="N374" t="inlineStr"/>
-      <c r="O374" t="n">
-        <v>43.5341835</v>
-      </c>
-      <c r="P374" t="n">
-        <v>-116.81147</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -19153,12 +16905,6 @@
       <c r="L375" t="inlineStr"/>
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr"/>
-      <c r="O375" t="n">
-        <v>43.54347810000001</v>
-      </c>
-      <c r="P375" t="n">
-        <v>-116.8122275</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -19203,12 +16949,6 @@
       <c r="L376" t="inlineStr"/>
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr"/>
-      <c r="O376" t="n">
-        <v>43.5452773</v>
-      </c>
-      <c r="P376" t="n">
-        <v>-116.8973545</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -19249,12 +16989,6 @@
       <c r="L377" t="inlineStr"/>
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr"/>
-      <c r="O377" t="n">
-        <v>46.383587</v>
-      </c>
-      <c r="P377" t="n">
-        <v>-116.9979849</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -19299,12 +17033,6 @@
       <c r="L378" t="inlineStr"/>
       <c r="M378" t="inlineStr"/>
       <c r="N378" t="inlineStr"/>
-      <c r="O378" t="n">
-        <v>43.6136954</v>
-      </c>
-      <c r="P378" t="n">
-        <v>-116.3962695</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -19349,12 +17077,6 @@
       <c r="L379" t="inlineStr"/>
       <c r="M379" t="inlineStr"/>
       <c r="N379" t="inlineStr"/>
-      <c r="O379" t="n">
-        <v>43.6176543</v>
-      </c>
-      <c r="P379" t="n">
-        <v>-116.4044068</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -19399,12 +17121,6 @@
       <c r="L380" t="inlineStr"/>
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr"/>
-      <c r="O380" t="n">
-        <v>43.7054925</v>
-      </c>
-      <c r="P380" t="n">
-        <v>-116.6268742</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -19449,12 +17165,6 @@
       <c r="L381" t="inlineStr"/>
       <c r="M381" t="inlineStr"/>
       <c r="N381" t="inlineStr"/>
-      <c r="O381" t="n">
-        <v>43.7060934</v>
-      </c>
-      <c r="P381" t="n">
-        <v>-112.0061153</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -19499,12 +17209,6 @@
       <c r="L382" t="inlineStr"/>
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr"/>
-      <c r="O382" t="n">
-        <v>47.4663317</v>
-      </c>
-      <c r="P382" t="n">
-        <v>-115.8081601</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -19549,12 +17253,6 @@
       <c r="L383" t="inlineStr"/>
       <c r="M383" t="inlineStr"/>
       <c r="N383" t="inlineStr"/>
-      <c r="O383" t="n">
-        <v>42.6781139</v>
-      </c>
-      <c r="P383" t="n">
-        <v>-114.2134378</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -19599,12 +17297,6 @@
       <c r="L384" t="inlineStr"/>
       <c r="M384" t="inlineStr"/>
       <c r="N384" t="inlineStr"/>
-      <c r="O384" t="n">
-        <v>43.973487</v>
-      </c>
-      <c r="P384" t="n">
-        <v>-112.541305</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -19649,12 +17341,6 @@
       <c r="L385" t="inlineStr"/>
       <c r="M385" t="inlineStr"/>
       <c r="N385" t="inlineStr"/>
-      <c r="O385" t="n">
-        <v>43.2241769</v>
-      </c>
-      <c r="P385" t="n">
-        <v>-112.4444343</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -19699,12 +17385,6 @@
       <c r="L386" t="inlineStr"/>
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr"/>
-      <c r="O386" t="n">
-        <v>43.651674</v>
-      </c>
-      <c r="P386" t="n">
-        <v>-115.978049</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -19749,12 +17429,6 @@
       <c r="L387" t="inlineStr"/>
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr"/>
-      <c r="O387" t="n">
-        <v>43.6257712</v>
-      </c>
-      <c r="P387" t="n">
-        <v>-116.2790086</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -19799,12 +17473,6 @@
       <c r="L388" t="inlineStr"/>
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr"/>
-      <c r="O388" t="n">
-        <v>42.5576306</v>
-      </c>
-      <c r="P388" t="n">
-        <v>-114.4490003</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -19849,12 +17517,6 @@
       <c r="L389" t="inlineStr"/>
       <c r="M389" t="inlineStr"/>
       <c r="N389" t="inlineStr"/>
-      <c r="O389" t="n">
-        <v>43.129839</v>
-      </c>
-      <c r="P389" t="n">
-        <v>-115.6850439</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -19899,12 +17561,6 @@
       <c r="L390" t="inlineStr"/>
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr"/>
-      <c r="O390" t="n">
-        <v>43.1279942</v>
-      </c>
-      <c r="P390" t="n">
-        <v>-115.68144</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -19953,12 +17609,6 @@
       <c r="L391" t="inlineStr"/>
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr"/>
-      <c r="O391" t="n">
-        <v>48.6958728</v>
-      </c>
-      <c r="P391" t="n">
-        <v>-116.3069393</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -20003,12 +17653,6 @@
       <c r="L392" t="inlineStr"/>
       <c r="M392" t="inlineStr"/>
       <c r="N392" t="inlineStr"/>
-      <c r="O392" t="n">
-        <v>42.5570563</v>
-      </c>
-      <c r="P392" t="n">
-        <v>-113.7633695</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -20053,12 +17697,6 @@
       <c r="L393" t="inlineStr"/>
       <c r="M393" t="inlineStr"/>
       <c r="N393" t="inlineStr"/>
-      <c r="O393" t="n">
-        <v>43.1901065</v>
-      </c>
-      <c r="P393" t="n">
-        <v>-112.3319126</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -20103,12 +17741,6 @@
       <c r="L394" t="inlineStr"/>
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr"/>
-      <c r="O394" t="n">
-        <v>43.645416</v>
-      </c>
-      <c r="P394" t="n">
-        <v>-116.666761</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -20153,12 +17785,6 @@
       <c r="L395" t="inlineStr"/>
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr"/>
-      <c r="O395" t="n">
-        <v>43.84127609999999</v>
-      </c>
-      <c r="P395" t="n">
-        <v>-112.4946315</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -20203,12 +17829,6 @@
       <c r="L396" t="inlineStr"/>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr"/>
-      <c r="O396" t="n">
-        <v>47.4692324</v>
-      </c>
-      <c r="P396" t="n">
-        <v>-115.797922</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -20253,12 +17873,6 @@
       <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="inlineStr"/>
-      <c r="O397" t="n">
-        <v>42.4925038</v>
-      </c>
-      <c r="P397" t="n">
-        <v>-114.1662831</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -20303,12 +17917,6 @@
       <c r="L398" t="inlineStr"/>
       <c r="M398" t="inlineStr"/>
       <c r="N398" t="inlineStr"/>
-      <c r="O398" t="n">
-        <v>43.5870818</v>
-      </c>
-      <c r="P398" t="n">
-        <v>-116.5463341</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -20357,12 +17965,6 @@
       <c r="L399" t="inlineStr"/>
       <c r="M399" t="inlineStr"/>
       <c r="N399" t="inlineStr"/>
-      <c r="O399" t="n">
-        <v>48.5720105</v>
-      </c>
-      <c r="P399" t="n">
-        <v>-116.3937567</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -20407,12 +18009,6 @@
       <c r="L400" t="inlineStr"/>
       <c r="M400" t="inlineStr"/>
       <c r="N400" t="inlineStr"/>
-      <c r="O400" t="n">
-        <v>42.8908044</v>
-      </c>
-      <c r="P400" t="n">
-        <v>-112.4706876</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -20457,12 +18053,6 @@
       <c r="L401" t="inlineStr"/>
       <c r="M401" t="inlineStr"/>
       <c r="N401" t="inlineStr"/>
-      <c r="O401" t="n">
-        <v>43.9628679</v>
-      </c>
-      <c r="P401" t="n">
-        <v>-116.8206965</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -20507,12 +18097,6 @@
       <c r="L402" t="inlineStr"/>
       <c r="M402" t="inlineStr"/>
       <c r="N402" t="inlineStr"/>
-      <c r="O402" t="n">
-        <v>46.2367916</v>
-      </c>
-      <c r="P402" t="n">
-        <v>-116.2416536</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -20557,12 +18141,6 @@
       <c r="L403" t="inlineStr"/>
       <c r="M403" t="inlineStr"/>
       <c r="N403" t="inlineStr"/>
-      <c r="O403" t="n">
-        <v>44.8158025</v>
-      </c>
-      <c r="P403" t="n">
-        <v>-116.4402205</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -20607,12 +18185,6 @@
       <c r="L404" t="inlineStr"/>
       <c r="M404" t="inlineStr"/>
       <c r="N404" t="inlineStr"/>
-      <c r="O404" t="n">
-        <v>43.1455815</v>
-      </c>
-      <c r="P404" t="n">
-        <v>-115.6987225</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -20657,12 +18229,6 @@
       <c r="L405" t="inlineStr"/>
       <c r="M405" t="inlineStr"/>
       <c r="N405" t="inlineStr"/>
-      <c r="O405" t="n">
-        <v>44.0883432</v>
-      </c>
-      <c r="P405" t="n">
-        <v>-116.9331647</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -20707,12 +18273,6 @@
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="inlineStr"/>
       <c r="N406" t="inlineStr"/>
-      <c r="O406" t="n">
-        <v>42.848976</v>
-      </c>
-      <c r="P406" t="n">
-        <v>-112.9625415</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -20757,12 +18317,6 @@
       <c r="L407" t="inlineStr"/>
       <c r="M407" t="inlineStr"/>
       <c r="N407" t="inlineStr"/>
-      <c r="O407" t="n">
-        <v>42.9837305</v>
-      </c>
-      <c r="P407" t="n">
-        <v>-114.679826</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -20807,12 +18361,6 @@
       <c r="L408" t="inlineStr"/>
       <c r="M408" t="inlineStr"/>
       <c r="N408" t="inlineStr"/>
-      <c r="O408" t="n">
-        <v>47.7595857</v>
-      </c>
-      <c r="P408" t="n">
-        <v>-116.7857963</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -20857,12 +18405,6 @@
       <c r="L409" t="inlineStr"/>
       <c r="M409" t="inlineStr"/>
       <c r="N409" t="inlineStr"/>
-      <c r="O409" t="n">
-        <v>43.6659193</v>
-      </c>
-      <c r="P409" t="n">
-        <v>-116.8027433</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -20907,12 +18449,6 @@
       <c r="L410" t="inlineStr"/>
       <c r="M410" t="inlineStr"/>
       <c r="N410" t="inlineStr"/>
-      <c r="O410" t="n">
-        <v>42.9085362</v>
-      </c>
-      <c r="P410" t="n">
-        <v>-112.4826081</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -20957,12 +18493,6 @@
       <c r="L411" t="inlineStr"/>
       <c r="M411" t="inlineStr"/>
       <c r="N411" t="inlineStr"/>
-      <c r="O411" t="n">
-        <v>42.2451215</v>
-      </c>
-      <c r="P411" t="n">
-        <v>-113.8889951</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -21007,12 +18537,6 @@
       <c r="L412" t="inlineStr"/>
       <c r="M412" t="inlineStr"/>
       <c r="N412" t="inlineStr"/>
-      <c r="O412" t="n">
-        <v>44.0710653</v>
-      </c>
-      <c r="P412" t="n">
-        <v>-116.9254198</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -21057,12 +18581,6 @@
       <c r="L413" t="inlineStr"/>
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr"/>
-      <c r="O413" t="n">
-        <v>46.7226854</v>
-      </c>
-      <c r="P413" t="n">
-        <v>-117.0083761</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -21107,12 +18625,6 @@
       <c r="L414" t="inlineStr"/>
       <c r="M414" t="inlineStr"/>
       <c r="N414" t="inlineStr"/>
-      <c r="O414" t="n">
-        <v>46.7211175</v>
-      </c>
-      <c r="P414" t="n">
-        <v>-117.0342822</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -21157,12 +18669,6 @@
       <c r="L415" t="inlineStr"/>
       <c r="M415" t="inlineStr"/>
       <c r="N415" t="inlineStr"/>
-      <c r="O415" t="n">
-        <v>46.7250449</v>
-      </c>
-      <c r="P415" t="n">
-        <v>-117.004973</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -21207,12 +18713,6 @@
       <c r="L416" t="inlineStr"/>
       <c r="M416" t="inlineStr"/>
       <c r="N416" t="inlineStr"/>
-      <c r="O416" t="n">
-        <v>42.540858</v>
-      </c>
-      <c r="P416" t="n">
-        <v>-114.4663895</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -21257,12 +18757,6 @@
       <c r="L417" t="inlineStr"/>
       <c r="M417" t="inlineStr"/>
       <c r="N417" t="inlineStr"/>
-      <c r="O417" t="n">
-        <v>46.4839255</v>
-      </c>
-      <c r="P417" t="n">
-        <v>-116.2441258</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -21307,12 +18801,6 @@
       <c r="L418" t="inlineStr"/>
       <c r="M418" t="inlineStr"/>
       <c r="N418" t="inlineStr"/>
-      <c r="O418" t="n">
-        <v>46.479347</v>
-      </c>
-      <c r="P418" t="n">
-        <v>-116.2551395</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -21357,12 +18845,6 @@
       <c r="L419" t="inlineStr"/>
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
-      <c r="O419" t="n">
-        <v>46.37601490000001</v>
-      </c>
-      <c r="P419" t="n">
-        <v>-115.9381946</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -21407,12 +18889,6 @@
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
       <c r="N420" t="inlineStr"/>
-      <c r="O420" t="n">
-        <v>46.4910207</v>
-      </c>
-      <c r="P420" t="n">
-        <v>-115.7990289</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -21457,12 +18933,6 @@
       <c r="L421" t="inlineStr"/>
       <c r="M421" t="inlineStr"/>
       <c r="N421" t="inlineStr"/>
-      <c r="O421" t="n">
-        <v>46.5007967</v>
-      </c>
-      <c r="P421" t="n">
-        <v>-116.540126</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -21507,12 +18977,6 @@
       <c r="L422" t="inlineStr"/>
       <c r="M422" t="inlineStr"/>
       <c r="N422" t="inlineStr"/>
-      <c r="O422" t="n">
-        <v>42.2264611</v>
-      </c>
-      <c r="P422" t="n">
-        <v>-111.3995585</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -21557,12 +19021,6 @@
       <c r="L423" t="inlineStr"/>
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr"/>
-      <c r="O423" t="n">
-        <v>43.7892824</v>
-      </c>
-      <c r="P423" t="n">
-        <v>-116.9361834</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -21607,12 +19065,6 @@
       <c r="L424" t="inlineStr"/>
       <c r="M424" t="inlineStr"/>
       <c r="N424" t="inlineStr"/>
-      <c r="O424" t="n">
-        <v>42.607574</v>
-      </c>
-      <c r="P424" t="n">
-        <v>-113.785298</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -21657,12 +19109,6 @@
       <c r="L425" t="inlineStr"/>
       <c r="M425" t="inlineStr"/>
       <c r="N425" t="inlineStr"/>
-      <c r="O425" t="n">
-        <v>44.0908999</v>
-      </c>
-      <c r="P425" t="n">
-        <v>-116.938179</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -21707,12 +19153,6 @@
       <c r="L426" t="inlineStr"/>
       <c r="M426" t="inlineStr"/>
       <c r="N426" t="inlineStr"/>
-      <c r="O426" t="n">
-        <v>44.0771946</v>
-      </c>
-      <c r="P426" t="n">
-        <v>-116.9271975</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -21757,12 +19197,6 @@
       <c r="L427" t="inlineStr"/>
       <c r="M427" t="inlineStr"/>
       <c r="N427" t="inlineStr"/>
-      <c r="O427" t="n">
-        <v>47.537802</v>
-      </c>
-      <c r="P427" t="n">
-        <v>-116.2368538</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -21807,12 +19241,6 @@
       <c r="L428" t="inlineStr"/>
       <c r="M428" t="inlineStr"/>
       <c r="N428" t="inlineStr"/>
-      <c r="O428" t="n">
-        <v>43.11731229999999</v>
-      </c>
-      <c r="P428" t="n">
-        <v>-112.5953281</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -21857,12 +19285,6 @@
       <c r="L429" t="inlineStr"/>
       <c r="M429" t="inlineStr"/>
       <c r="N429" t="inlineStr"/>
-      <c r="O429" t="n">
-        <v>47.7025449</v>
-      </c>
-      <c r="P429" t="n">
-        <v>-116.9022449</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -21907,12 +19329,6 @@
       <c r="L430" t="inlineStr"/>
       <c r="M430" t="inlineStr"/>
       <c r="N430" t="inlineStr"/>
-      <c r="O430" t="n">
-        <v>42.6009254</v>
-      </c>
-      <c r="P430" t="n">
-        <v>-114.7545089</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -21957,12 +19373,6 @@
       <c r="L431" t="inlineStr"/>
       <c r="M431" t="inlineStr"/>
       <c r="N431" t="inlineStr"/>
-      <c r="O431" t="n">
-        <v>47.7290152</v>
-      </c>
-      <c r="P431" t="n">
-        <v>-116.9079254</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -22007,12 +19417,6 @@
       <c r="L432" t="inlineStr"/>
       <c r="M432" t="inlineStr"/>
       <c r="N432" t="inlineStr"/>
-      <c r="O432" t="n">
-        <v>46.9209989</v>
-      </c>
-      <c r="P432" t="n">
-        <v>-116.8951453</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -22057,12 +19461,6 @@
       <c r="L433" t="inlineStr"/>
       <c r="M433" t="inlineStr"/>
       <c r="N433" t="inlineStr"/>
-      <c r="O433" t="n">
-        <v>46.9214097</v>
-      </c>
-      <c r="P433" t="n">
-        <v>-116.9018912</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -22107,12 +19505,6 @@
       <c r="L434" t="inlineStr"/>
       <c r="M434" t="inlineStr"/>
       <c r="N434" t="inlineStr"/>
-      <c r="O434" t="n">
-        <v>42.0930588</v>
-      </c>
-      <c r="P434" t="n">
-        <v>-111.8723841</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -22157,12 +19549,6 @@
       <c r="L435" t="inlineStr"/>
       <c r="M435" t="inlineStr"/>
       <c r="N435" t="inlineStr"/>
-      <c r="O435" t="n">
-        <v>48.1857409</v>
-      </c>
-      <c r="P435" t="n">
-        <v>-116.9112098</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -22207,12 +19593,6 @@
       <c r="L436" t="inlineStr"/>
       <c r="M436" t="inlineStr"/>
       <c r="N436" t="inlineStr"/>
-      <c r="O436" t="n">
-        <v>48.1911575</v>
-      </c>
-      <c r="P436" t="n">
-        <v>-116.9182608</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -22257,12 +19637,6 @@
       <c r="L437" t="inlineStr"/>
       <c r="M437" t="inlineStr"/>
       <c r="N437" t="inlineStr"/>
-      <c r="O437" t="n">
-        <v>42.307382</v>
-      </c>
-      <c r="P437" t="n">
-        <v>-113.3736063</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -22307,12 +19681,6 @@
       <c r="L438" t="inlineStr"/>
       <c r="M438" t="inlineStr"/>
       <c r="N438" t="inlineStr"/>
-      <c r="O438" t="n">
-        <v>47.7162635</v>
-      </c>
-      <c r="P438" t="n">
-        <v>-116.8043723</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -22357,12 +19725,6 @@
       <c r="L439" t="inlineStr"/>
       <c r="M439" t="inlineStr"/>
       <c r="N439" t="inlineStr"/>
-      <c r="O439" t="n">
-        <v>42.9278282</v>
-      </c>
-      <c r="P439" t="n">
-        <v>-114.7118654</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -22407,12 +19769,6 @@
       <c r="L440" t="inlineStr"/>
       <c r="M440" t="inlineStr"/>
       <c r="N440" t="inlineStr"/>
-      <c r="O440" t="n">
-        <v>42.868583</v>
-      </c>
-      <c r="P440" t="n">
-        <v>-112.465174</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -22457,12 +19813,6 @@
       <c r="L441" t="inlineStr"/>
       <c r="M441" t="inlineStr"/>
       <c r="N441" t="inlineStr"/>
-      <c r="O441" t="n">
-        <v>43.5046202</v>
-      </c>
-      <c r="P441" t="n">
-        <v>-116.4106207</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -22507,12 +19857,6 @@
       <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
       <c r="N442" t="inlineStr"/>
-      <c r="O442" t="n">
-        <v>43.5952709</v>
-      </c>
-      <c r="P442" t="n">
-        <v>-116.3779962</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -22557,12 +19901,6 @@
       <c r="L443" t="inlineStr"/>
       <c r="M443" t="inlineStr"/>
       <c r="N443" t="inlineStr"/>
-      <c r="O443" t="n">
-        <v>43.2026271</v>
-      </c>
-      <c r="P443" t="n">
-        <v>-112.3453044</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -22607,12 +19945,6 @@
       <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr"/>
       <c r="N444" t="inlineStr"/>
-      <c r="O444" t="n">
-        <v>42.936561</v>
-      </c>
-      <c r="P444" t="n">
-        <v>-114.714174</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -22657,12 +19989,6 @@
       <c r="L445" t="inlineStr"/>
       <c r="M445" t="inlineStr"/>
       <c r="N445" t="inlineStr"/>
-      <c r="O445" t="n">
-        <v>43.628908</v>
-      </c>
-      <c r="P445" t="n">
-        <v>-111.774495</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -22707,12 +20033,6 @@
       <c r="L446" t="inlineStr"/>
       <c r="M446" t="inlineStr"/>
       <c r="N446" t="inlineStr"/>
-      <c r="O446" t="n">
-        <v>47.7242156</v>
-      </c>
-      <c r="P446" t="n">
-        <v>-116.9547677</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -22757,12 +20077,6 @@
       <c r="L447" t="inlineStr"/>
       <c r="M447" t="inlineStr"/>
       <c r="N447" t="inlineStr"/>
-      <c r="O447" t="n">
-        <v>43.636233</v>
-      </c>
-      <c r="P447" t="n">
-        <v>-116.245594</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -22807,12 +20121,6 @@
       <c r="L448" t="inlineStr"/>
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr"/>
-      <c r="O448" t="n">
-        <v>43.1945122</v>
-      </c>
-      <c r="P448" t="n">
-        <v>-112.436045</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -22857,12 +20165,6 @@
       <c r="L449" t="inlineStr"/>
       <c r="M449" t="inlineStr"/>
       <c r="N449" t="inlineStr"/>
-      <c r="O449" t="n">
-        <v>43.7250542</v>
-      </c>
-      <c r="P449" t="n">
-        <v>-112.1302615</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -22907,12 +20209,6 @@
       <c r="L450" t="inlineStr"/>
       <c r="M450" t="inlineStr"/>
       <c r="N450" t="inlineStr"/>
-      <c r="O450" t="n">
-        <v>43.637741</v>
-      </c>
-      <c r="P450" t="n">
-        <v>-116.012733</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -22957,12 +20253,6 @@
       <c r="L451" t="inlineStr"/>
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr"/>
-      <c r="O451" t="n">
-        <v>43.18726059999999</v>
-      </c>
-      <c r="P451" t="n">
-        <v>-112.5342607</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -23007,12 +20297,6 @@
       <c r="L452" t="inlineStr"/>
       <c r="M452" t="inlineStr"/>
       <c r="N452" t="inlineStr"/>
-      <c r="O452" t="n">
-        <v>42.5742578</v>
-      </c>
-      <c r="P452" t="n">
-        <v>-112.873165</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -23057,12 +20341,6 @@
       <c r="L453" t="inlineStr"/>
       <c r="M453" t="inlineStr"/>
       <c r="N453" t="inlineStr"/>
-      <c r="O453" t="n">
-        <v>43.5265903</v>
-      </c>
-      <c r="P453" t="n">
-        <v>-111.9652318</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -23107,12 +20385,6 @@
       <c r="L454" t="inlineStr"/>
       <c r="M454" t="inlineStr"/>
       <c r="N454" t="inlineStr"/>
-      <c r="O454" t="n">
-        <v>43.6856861</v>
-      </c>
-      <c r="P454" t="n">
-        <v>-116.3132945</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -23148,7 +20420,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>6/29/2032</t>
+          <t>6/30/2032</t>
         </is>
       </c>
       <c r="I455" t="inlineStr"/>
@@ -23157,12 +20429,6 @@
       <c r="L455" t="inlineStr"/>
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr"/>
-      <c r="O455" t="n">
-        <v>43.494332</v>
-      </c>
-      <c r="P455" t="n">
-        <v>-116.422308</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -23207,12 +20473,6 @@
       <c r="L456" t="inlineStr"/>
       <c r="M456" t="inlineStr"/>
       <c r="N456" t="inlineStr"/>
-      <c r="O456" t="n">
-        <v>43.7313431</v>
-      </c>
-      <c r="P456" t="n">
-        <v>-116.7933434</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -23257,12 +20517,6 @@
       <c r="L457" t="inlineStr"/>
       <c r="M457" t="inlineStr"/>
       <c r="N457" t="inlineStr"/>
-      <c r="O457" t="n">
-        <v>43.783004</v>
-      </c>
-      <c r="P457" t="n">
-        <v>-116.785169</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -23307,12 +20561,6 @@
       <c r="L458" t="inlineStr"/>
       <c r="M458" t="inlineStr"/>
       <c r="N458" t="inlineStr"/>
-      <c r="O458" t="n">
-        <v>43.7709764</v>
-      </c>
-      <c r="P458" t="n">
-        <v>-116.8332907</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -23357,12 +20605,6 @@
       <c r="L459" t="inlineStr"/>
       <c r="M459" t="inlineStr"/>
       <c r="N459" t="inlineStr"/>
-      <c r="O459" t="n">
-        <v>43.74721</v>
-      </c>
-      <c r="P459" t="n">
-        <v>-116.785246</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -23407,12 +20649,6 @@
       <c r="L460" t="inlineStr"/>
       <c r="M460" t="inlineStr"/>
       <c r="N460" t="inlineStr"/>
-      <c r="O460" t="n">
-        <v>43.7233168</v>
-      </c>
-      <c r="P460" t="n">
-        <v>-116.7908088</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -23457,12 +20693,6 @@
       <c r="L461" t="inlineStr"/>
       <c r="M461" t="inlineStr"/>
       <c r="N461" t="inlineStr"/>
-      <c r="O461" t="n">
-        <v>43.726204</v>
-      </c>
-      <c r="P461" t="n">
-        <v>-116.775472</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -23507,12 +20737,6 @@
       <c r="L462" t="inlineStr"/>
       <c r="M462" t="inlineStr"/>
       <c r="N462" t="inlineStr"/>
-      <c r="O462" t="n">
-        <v>43.745969</v>
-      </c>
-      <c r="P462" t="n">
-        <v>-116.772172</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -23557,12 +20781,6 @@
       <c r="L463" t="inlineStr"/>
       <c r="M463" t="inlineStr"/>
       <c r="N463" t="inlineStr"/>
-      <c r="O463" t="n">
-        <v>43.7635999</v>
-      </c>
-      <c r="P463" t="n">
-        <v>-116.7612699</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -23607,12 +20825,6 @@
       <c r="L464" t="inlineStr"/>
       <c r="M464" t="inlineStr"/>
       <c r="N464" t="inlineStr"/>
-      <c r="O464" t="n">
-        <v>43.6962614</v>
-      </c>
-      <c r="P464" t="n">
-        <v>-116.7126841</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -23657,12 +20869,6 @@
       <c r="L465" t="inlineStr"/>
       <c r="M465" t="inlineStr"/>
       <c r="N465" t="inlineStr"/>
-      <c r="O465" t="n">
-        <v>43.7353533</v>
-      </c>
-      <c r="P465" t="n">
-        <v>-116.7095094</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -23707,12 +20913,6 @@
       <c r="L466" t="inlineStr"/>
       <c r="M466" t="inlineStr"/>
       <c r="N466" t="inlineStr"/>
-      <c r="O466" t="n">
-        <v>43.77833709999999</v>
-      </c>
-      <c r="P466" t="n">
-        <v>-116.7560404</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -23757,12 +20957,6 @@
       <c r="L467" t="inlineStr"/>
       <c r="M467" t="inlineStr"/>
       <c r="N467" t="inlineStr"/>
-      <c r="O467" t="n">
-        <v>43.8075</v>
-      </c>
-      <c r="P467" t="n">
-        <v>-116.7475</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -23807,12 +21001,6 @@
       <c r="L468" t="inlineStr"/>
       <c r="M468" t="inlineStr"/>
       <c r="N468" t="inlineStr"/>
-      <c r="O468" t="n">
-        <v>43.7274959</v>
-      </c>
-      <c r="P468" t="n">
-        <v>-116.7973687</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -23857,12 +21045,6 @@
       <c r="L469" t="inlineStr"/>
       <c r="M469" t="inlineStr"/>
       <c r="N469" t="inlineStr"/>
-      <c r="O469" t="n">
-        <v>43.66293839999999</v>
-      </c>
-      <c r="P469" t="n">
-        <v>-116.6873596</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -23907,12 +21089,6 @@
       <c r="L470" t="inlineStr"/>
       <c r="M470" t="inlineStr"/>
       <c r="N470" t="inlineStr"/>
-      <c r="O470" t="n">
-        <v>43.7160213</v>
-      </c>
-      <c r="P470" t="n">
-        <v>-116.8204506</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -23957,12 +21133,6 @@
       <c r="L471" t="inlineStr"/>
       <c r="M471" t="inlineStr"/>
       <c r="N471" t="inlineStr"/>
-      <c r="O471" t="n">
-        <v>43.72707279999999</v>
-      </c>
-      <c r="P471" t="n">
-        <v>-116.8767003</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -24007,12 +21177,6 @@
       <c r="L472" t="inlineStr"/>
       <c r="M472" t="inlineStr"/>
       <c r="N472" t="inlineStr"/>
-      <c r="O472" t="n">
-        <v>43.705177</v>
-      </c>
-      <c r="P472" t="n">
-        <v>-116.846484</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -24057,12 +21221,6 @@
       <c r="L473" t="inlineStr"/>
       <c r="M473" t="inlineStr"/>
       <c r="N473" t="inlineStr"/>
-      <c r="O473" t="n">
-        <v>43.702861</v>
-      </c>
-      <c r="P473" t="n">
-        <v>-116.805414</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -24107,12 +21265,6 @@
       <c r="L474" t="inlineStr"/>
       <c r="M474" t="inlineStr"/>
       <c r="N474" t="inlineStr"/>
-      <c r="O474" t="n">
-        <v>43.719601</v>
-      </c>
-      <c r="P474" t="n">
-        <v>-116.858297</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -24157,12 +21309,6 @@
       <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
       <c r="N475" t="inlineStr"/>
-      <c r="O475" t="n">
-        <v>43.66972550000001</v>
-      </c>
-      <c r="P475" t="n">
-        <v>-116.8156407</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -24207,12 +21353,6 @@
       <c r="L476" t="inlineStr"/>
       <c r="M476" t="inlineStr"/>
       <c r="N476" t="inlineStr"/>
-      <c r="O476" t="n">
-        <v>43.72541940000001</v>
-      </c>
-      <c r="P476" t="n">
-        <v>-116.7992719</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -24257,12 +21397,6 @@
       <c r="L477" t="inlineStr"/>
       <c r="M477" t="inlineStr"/>
       <c r="N477" t="inlineStr"/>
-      <c r="O477" t="n">
-        <v>43.7260178</v>
-      </c>
-      <c r="P477" t="n">
-        <v>-116.8010338</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -24307,12 +21441,6 @@
       <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr"/>
       <c r="N478" t="inlineStr"/>
-      <c r="O478" t="n">
-        <v>43.7274445</v>
-      </c>
-      <c r="P478" t="n">
-        <v>-116.7989401</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -24357,12 +21485,6 @@
       <c r="L479" t="inlineStr"/>
       <c r="M479" t="inlineStr"/>
       <c r="N479" t="inlineStr"/>
-      <c r="O479" t="n">
-        <v>43.72889199999999</v>
-      </c>
-      <c r="P479" t="n">
-        <v>-116.7993644</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -24407,12 +21529,6 @@
       <c r="L480" t="inlineStr"/>
       <c r="M480" t="inlineStr"/>
       <c r="N480" t="inlineStr"/>
-      <c r="O480" t="n">
-        <v>43.7292417</v>
-      </c>
-      <c r="P480" t="n">
-        <v>-116.8003168</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -24457,12 +21573,6 @@
       <c r="L481" t="inlineStr"/>
       <c r="M481" t="inlineStr"/>
       <c r="N481" t="inlineStr"/>
-      <c r="O481" t="n">
-        <v>43.729059</v>
-      </c>
-      <c r="P481" t="n">
-        <v>-116.800241</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -24507,12 +21617,6 @@
       <c r="L482" t="inlineStr"/>
       <c r="M482" t="inlineStr"/>
       <c r="N482" t="inlineStr"/>
-      <c r="O482" t="n">
-        <v>43.729036</v>
-      </c>
-      <c r="P482" t="n">
-        <v>-116.800928</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -24557,12 +21661,6 @@
       <c r="L483" t="inlineStr"/>
       <c r="M483" t="inlineStr"/>
       <c r="N483" t="inlineStr"/>
-      <c r="O483" t="n">
-        <v>43.72903489999999</v>
-      </c>
-      <c r="P483" t="n">
-        <v>-116.801575</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -24607,12 +21705,6 @@
       <c r="L484" t="inlineStr"/>
       <c r="M484" t="inlineStr"/>
       <c r="N484" t="inlineStr"/>
-      <c r="O484" t="n">
-        <v>43.6855971</v>
-      </c>
-      <c r="P484" t="n">
-        <v>-116.6771221</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -24653,12 +21745,6 @@
       <c r="L485" t="inlineStr"/>
       <c r="M485" t="inlineStr"/>
       <c r="N485" t="inlineStr"/>
-      <c r="O485" t="n">
-        <v>46.3720519</v>
-      </c>
-      <c r="P485" t="n">
-        <v>-116.971868</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -24703,12 +21789,6 @@
       <c r="L486" t="inlineStr"/>
       <c r="M486" t="inlineStr"/>
       <c r="N486" t="inlineStr"/>
-      <c r="O486" t="n">
-        <v>43.6348436</v>
-      </c>
-      <c r="P486" t="n">
-        <v>-116.6010956</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -24753,12 +21833,6 @@
       <c r="L487" t="inlineStr"/>
       <c r="M487" t="inlineStr"/>
       <c r="N487" t="inlineStr"/>
-      <c r="O487" t="n">
-        <v>43.8075438</v>
-      </c>
-      <c r="P487" t="n">
-        <v>-116.7475068</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -24803,12 +21877,6 @@
       <c r="L488" t="inlineStr"/>
       <c r="M488" t="inlineStr"/>
       <c r="N488" t="inlineStr"/>
-      <c r="O488" t="n">
-        <v>47.1500657</v>
-      </c>
-      <c r="P488" t="n">
-        <v>-116.4492971</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -24853,12 +21921,6 @@
       <c r="L489" t="inlineStr"/>
       <c r="M489" t="inlineStr"/>
       <c r="N489" t="inlineStr"/>
-      <c r="O489" t="n">
-        <v>44.7295898</v>
-      </c>
-      <c r="P489" t="n">
-        <v>-116.4397686</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -24903,12 +21965,6 @@
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr"/>
       <c r="N490" t="inlineStr"/>
-      <c r="O490" t="n">
-        <v>43.5635169</v>
-      </c>
-      <c r="P490" t="n">
-        <v>-116.550636</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -24953,12 +22009,6 @@
       <c r="L491" t="inlineStr"/>
       <c r="M491" t="inlineStr"/>
       <c r="N491" t="inlineStr"/>
-      <c r="O491" t="n">
-        <v>42.8655658</v>
-      </c>
-      <c r="P491" t="n">
-        <v>-114.7718683</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -25003,12 +22053,6 @@
       <c r="L492" t="inlineStr"/>
       <c r="M492" t="inlineStr"/>
       <c r="N492" t="inlineStr"/>
-      <c r="O492" t="n">
-        <v>43.0148551</v>
-      </c>
-      <c r="P492" t="n">
-        <v>-112.4373534</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -25053,12 +22097,6 @@
       <c r="L493" t="inlineStr"/>
       <c r="M493" t="inlineStr"/>
       <c r="N493" t="inlineStr"/>
-      <c r="O493" t="n">
-        <v>47.49910970000001</v>
-      </c>
-      <c r="P493" t="n">
-        <v>-115.9833699</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -25103,12 +22141,6 @@
       <c r="L494" t="inlineStr"/>
       <c r="M494" t="inlineStr"/>
       <c r="N494" t="inlineStr"/>
-      <c r="O494" t="n">
-        <v>47.7322623</v>
-      </c>
-      <c r="P494" t="n">
-        <v>-116.8184715</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -25153,12 +22185,6 @@
       <c r="L495" t="inlineStr"/>
       <c r="M495" t="inlineStr"/>
       <c r="N495" t="inlineStr"/>
-      <c r="O495" t="n">
-        <v>43.6548268</v>
-      </c>
-      <c r="P495" t="n">
-        <v>-116.6224268</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -25203,12 +22229,6 @@
       <c r="L496" t="inlineStr"/>
       <c r="M496" t="inlineStr"/>
       <c r="N496" t="inlineStr"/>
-      <c r="O496" t="n">
-        <v>43.58907019999999</v>
-      </c>
-      <c r="P496" t="n">
-        <v>-116.5460975</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -25253,12 +22273,6 @@
       <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr"/>
       <c r="N497" t="inlineStr"/>
-      <c r="O497" t="n">
-        <v>43.1985438</v>
-      </c>
-      <c r="P497" t="n">
-        <v>-112.4784135</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -25303,12 +22317,6 @@
       <c r="L498" t="inlineStr"/>
       <c r="M498" t="inlineStr"/>
       <c r="N498" t="inlineStr"/>
-      <c r="O498" t="n">
-        <v>44.6241743</v>
-      </c>
-      <c r="P498" t="n">
-        <v>-116.4628995</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -25353,12 +22361,6 @@
       <c r="L499" t="inlineStr"/>
       <c r="M499" t="inlineStr"/>
       <c r="N499" t="inlineStr"/>
-      <c r="O499" t="n">
-        <v>43.726244</v>
-      </c>
-      <c r="P499" t="n">
-        <v>-111.819668</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -25403,12 +22405,6 @@
       <c r="L500" t="inlineStr"/>
       <c r="M500" t="inlineStr"/>
       <c r="N500" t="inlineStr"/>
-      <c r="O500" t="n">
-        <v>42.78984519999999</v>
-      </c>
-      <c r="P500" t="n">
-        <v>-112.9336735</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -25453,12 +22449,6 @@
       <c r="L501" t="inlineStr"/>
       <c r="M501" t="inlineStr"/>
       <c r="N501" t="inlineStr"/>
-      <c r="O501" t="n">
-        <v>48.0999388</v>
-      </c>
-      <c r="P501" t="n">
-        <v>-116.6132026</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -25503,12 +22493,6 @@
       <c r="L502" t="inlineStr"/>
       <c r="M502" t="inlineStr"/>
       <c r="N502" t="inlineStr"/>
-      <c r="O502" t="n">
-        <v>47.3152384</v>
-      </c>
-      <c r="P502" t="n">
-        <v>-116.5624581</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -25553,12 +22537,6 @@
       <c r="L503" t="inlineStr"/>
       <c r="M503" t="inlineStr"/>
       <c r="N503" t="inlineStr"/>
-      <c r="O503" t="n">
-        <v>47.4737354</v>
-      </c>
-      <c r="P503" t="n">
-        <v>-115.80234</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -25603,12 +22581,6 @@
       <c r="L504" t="inlineStr"/>
       <c r="M504" t="inlineStr"/>
       <c r="N504" t="inlineStr"/>
-      <c r="O504" t="n">
-        <v>43.0560009</v>
-      </c>
-      <c r="P504" t="n">
-        <v>-115.8518725</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -25653,12 +22625,6 @@
       <c r="L505" t="inlineStr"/>
       <c r="M505" t="inlineStr"/>
       <c r="N505" t="inlineStr"/>
-      <c r="O505" t="n">
-        <v>42.54096</v>
-      </c>
-      <c r="P505" t="n">
-        <v>-114.3743732</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -25703,12 +22669,6 @@
       <c r="L506" t="inlineStr"/>
       <c r="M506" t="inlineStr"/>
       <c r="N506" t="inlineStr"/>
-      <c r="O506" t="n">
-        <v>42.927407</v>
-      </c>
-      <c r="P506" t="n">
-        <v>-112.474472</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -25753,12 +22713,6 @@
       <c r="L507" t="inlineStr"/>
       <c r="M507" t="inlineStr"/>
       <c r="N507" t="inlineStr"/>
-      <c r="O507" t="n">
-        <v>43.5222466</v>
-      </c>
-      <c r="P507" t="n">
-        <v>-111.9772348</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -25803,12 +22757,6 @@
       <c r="L508" t="inlineStr"/>
       <c r="M508" t="inlineStr"/>
       <c r="N508" t="inlineStr"/>
-      <c r="O508" t="n">
-        <v>43.373403</v>
-      </c>
-      <c r="P508" t="n">
-        <v>-112.1207093</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -25853,12 +22801,6 @@
       <c r="L509" t="inlineStr"/>
       <c r="M509" t="inlineStr"/>
       <c r="N509" t="inlineStr"/>
-      <c r="O509" t="n">
-        <v>43.6494902</v>
-      </c>
-      <c r="P509" t="n">
-        <v>-114.3472508</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -25903,12 +22845,6 @@
       <c r="L510" t="inlineStr"/>
       <c r="M510" t="inlineStr"/>
       <c r="N510" t="inlineStr"/>
-      <c r="O510" t="n">
-        <v>43.642069</v>
-      </c>
-      <c r="P510" t="n">
-        <v>-116.235863</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -25953,12 +22889,6 @@
       <c r="L511" t="inlineStr"/>
       <c r="M511" t="inlineStr"/>
       <c r="N511" t="inlineStr"/>
-      <c r="O511" t="n">
-        <v>43.651418</v>
-      </c>
-      <c r="P511" t="n">
-        <v>-116.2308151</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -26003,12 +22933,6 @@
       <c r="L512" t="inlineStr"/>
       <c r="M512" t="inlineStr"/>
       <c r="N512" t="inlineStr"/>
-      <c r="O512" t="n">
-        <v>43.6534696</v>
-      </c>
-      <c r="P512" t="n">
-        <v>-116.2522005</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -26053,12 +22977,6 @@
       <c r="L513" t="inlineStr"/>
       <c r="M513" t="inlineStr"/>
       <c r="N513" t="inlineStr"/>
-      <c r="O513" t="n">
-        <v>43.6503159</v>
-      </c>
-      <c r="P513" t="n">
-        <v>-116.2506635</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -26103,12 +23021,6 @@
       <c r="L514" t="inlineStr"/>
       <c r="M514" t="inlineStr"/>
       <c r="N514" t="inlineStr"/>
-      <c r="O514" t="n">
-        <v>43.6476796</v>
-      </c>
-      <c r="P514" t="n">
-        <v>-116.2463731</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -26153,12 +23065,6 @@
       <c r="L515" t="inlineStr"/>
       <c r="M515" t="inlineStr"/>
       <c r="N515" t="inlineStr"/>
-      <c r="O515" t="n">
-        <v>43.6422862</v>
-      </c>
-      <c r="P515" t="n">
-        <v>-116.2412475</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -26203,12 +23109,6 @@
       <c r="L516" t="inlineStr"/>
       <c r="M516" t="inlineStr"/>
       <c r="N516" t="inlineStr"/>
-      <c r="O516" t="n">
-        <v>46.1461422</v>
-      </c>
-      <c r="P516" t="n">
-        <v>-115.9744269</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -26253,12 +23153,6 @@
       <c r="L517" t="inlineStr"/>
       <c r="M517" t="inlineStr"/>
       <c r="N517" t="inlineStr"/>
-      <c r="O517" t="n">
-        <v>46.1010575</v>
-      </c>
-      <c r="P517" t="n">
-        <v>-115.9029329</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -26303,12 +23197,6 @@
       <c r="L518" t="inlineStr"/>
       <c r="M518" t="inlineStr"/>
       <c r="N518" t="inlineStr"/>
-      <c r="O518" t="n">
-        <v>46.116947</v>
-      </c>
-      <c r="P518" t="n">
-        <v>-115.8939521</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -26353,12 +23241,6 @@
       <c r="L519" t="inlineStr"/>
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr"/>
-      <c r="O519" t="n">
-        <v>46.11259</v>
-      </c>
-      <c r="P519" t="n">
-        <v>-115.8783573</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -26403,12 +23285,6 @@
       <c r="L520" t="inlineStr"/>
       <c r="M520" t="inlineStr"/>
       <c r="N520" t="inlineStr"/>
-      <c r="O520" t="n">
-        <v>46.0958578</v>
-      </c>
-      <c r="P520" t="n">
-        <v>-115.8722406</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -26453,12 +23329,6 @@
       <c r="L521" t="inlineStr"/>
       <c r="M521" t="inlineStr"/>
       <c r="N521" t="inlineStr"/>
-      <c r="O521" t="n">
-        <v>46.111202</v>
-      </c>
-      <c r="P521" t="n">
-        <v>-115.84549</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -26503,12 +23373,6 @@
       <c r="L522" t="inlineStr"/>
       <c r="M522" t="inlineStr"/>
       <c r="N522" t="inlineStr"/>
-      <c r="O522" t="n">
-        <v>46.101133</v>
-      </c>
-      <c r="P522" t="n">
-        <v>-115.841544</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -26553,12 +23417,6 @@
       <c r="L523" t="inlineStr"/>
       <c r="M523" t="inlineStr"/>
       <c r="N523" t="inlineStr"/>
-      <c r="O523" t="n">
-        <v>46.0991692</v>
-      </c>
-      <c r="P523" t="n">
-        <v>-115.8004607</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -26603,12 +23461,6 @@
       <c r="L524" t="inlineStr"/>
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr"/>
-      <c r="O524" t="n">
-        <v>43.50055039999999</v>
-      </c>
-      <c r="P524" t="n">
-        <v>-112.0552741</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -26653,12 +23505,6 @@
       <c r="L525" t="inlineStr"/>
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr"/>
-      <c r="O525" t="n">
-        <v>43.840826</v>
-      </c>
-      <c r="P525" t="n">
-        <v>-112.444482</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -26703,12 +23549,6 @@
       <c r="L526" t="inlineStr"/>
       <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr"/>
-      <c r="O526" t="n">
-        <v>43.8865803</v>
-      </c>
-      <c r="P526" t="n">
-        <v>-111.6760339</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -26753,12 +23593,6 @@
       <c r="L527" t="inlineStr"/>
       <c r="M527" t="inlineStr"/>
       <c r="N527" t="inlineStr"/>
-      <c r="O527" t="n">
-        <v>42.40722179999999</v>
-      </c>
-      <c r="P527" t="n">
-        <v>-111.7307511</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -26803,12 +23637,6 @@
       <c r="L528" t="inlineStr"/>
       <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr"/>
-      <c r="O528" t="n">
-        <v>44.0686989</v>
-      </c>
-      <c r="P528" t="n">
-        <v>-116.913963</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -26853,12 +23681,6 @@
       <c r="L529" t="inlineStr"/>
       <c r="M529" t="inlineStr"/>
       <c r="N529" t="inlineStr"/>
-      <c r="O529" t="n">
-        <v>43.6973646</v>
-      </c>
-      <c r="P529" t="n">
-        <v>-114.372419</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -26903,12 +23725,6 @@
       <c r="L530" t="inlineStr"/>
       <c r="M530" t="inlineStr"/>
       <c r="N530" t="inlineStr"/>
-      <c r="O530" t="n">
-        <v>42.6494314</v>
-      </c>
-      <c r="P530" t="n">
-        <v>-111.6021037</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -26957,12 +23773,6 @@
       <c r="L531" t="inlineStr"/>
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr"/>
-      <c r="O531" t="n">
-        <v>48.6913257</v>
-      </c>
-      <c r="P531" t="n">
-        <v>-116.3163092</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -27007,12 +23817,6 @@
       <c r="L532" t="inlineStr"/>
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr"/>
-      <c r="O532" t="n">
-        <v>43.4963666</v>
-      </c>
-      <c r="P532" t="n">
-        <v>-111.9741442</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -27057,12 +23861,6 @@
       <c r="L533" t="inlineStr"/>
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr"/>
-      <c r="O533" t="n">
-        <v>47.9537928</v>
-      </c>
-      <c r="P533" t="n">
-        <v>-116.864545</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -27107,12 +23905,6 @@
       <c r="L534" t="inlineStr"/>
       <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr"/>
-      <c r="O534" t="n">
-        <v>46.4351266</v>
-      </c>
-      <c r="P534" t="n">
-        <v>-115.8882506</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -27157,12 +23949,6 @@
       <c r="L535" t="inlineStr"/>
       <c r="M535" t="inlineStr"/>
       <c r="N535" t="inlineStr"/>
-      <c r="O535" t="n">
-        <v>44.07024819999999</v>
-      </c>
-      <c r="P535" t="n">
-        <v>-116.9227407</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -27207,12 +23993,6 @@
       <c r="L536" t="inlineStr"/>
       <c r="M536" t="inlineStr"/>
       <c r="N536" t="inlineStr"/>
-      <c r="O536" t="n">
-        <v>46.7357896</v>
-      </c>
-      <c r="P536" t="n">
-        <v>-116.7680225</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -27257,12 +24037,6 @@
       <c r="L537" t="inlineStr"/>
       <c r="M537" t="inlineStr"/>
       <c r="N537" t="inlineStr"/>
-      <c r="O537" t="n">
-        <v>46.74734609999999</v>
-      </c>
-      <c r="P537" t="n">
-        <v>-116.7674875</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -27307,12 +24081,6 @@
       <c r="L538" t="inlineStr"/>
       <c r="M538" t="inlineStr"/>
       <c r="N538" t="inlineStr"/>
-      <c r="O538" t="n">
-        <v>42.9459177</v>
-      </c>
-      <c r="P538" t="n">
-        <v>-114.7620379</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -27361,12 +24129,6 @@
       <c r="L539" t="inlineStr"/>
       <c r="M539" t="inlineStr"/>
       <c r="N539" t="inlineStr"/>
-      <c r="O539" t="n">
-        <v>43.6135838</v>
-      </c>
-      <c r="P539" t="n">
-        <v>-116.9330147</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -27411,12 +24173,6 @@
       <c r="L540" t="inlineStr"/>
       <c r="M540" t="inlineStr"/>
       <c r="N540" t="inlineStr"/>
-      <c r="O540" t="n">
-        <v>43.59204</v>
-      </c>
-      <c r="P540" t="n">
-        <v>-111.952028</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -27461,12 +24217,6 @@
       <c r="L541" t="inlineStr"/>
       <c r="M541" t="inlineStr"/>
       <c r="N541" t="inlineStr"/>
-      <c r="O541" t="n">
-        <v>47.11489479999999</v>
-      </c>
-      <c r="P541" t="n">
-        <v>-116.3896331</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -27511,12 +24261,6 @@
       <c r="L542" t="inlineStr"/>
       <c r="M542" t="inlineStr"/>
       <c r="N542" t="inlineStr"/>
-      <c r="O542" t="n">
-        <v>43.632927</v>
-      </c>
-      <c r="P542" t="n">
-        <v>-116.338137</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -27561,12 +24305,6 @@
       <c r="L543" t="inlineStr"/>
       <c r="M543" t="inlineStr"/>
       <c r="N543" t="inlineStr"/>
-      <c r="O543" t="n">
-        <v>42.92243209999999</v>
-      </c>
-      <c r="P543" t="n">
-        <v>-114.7116235</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -27611,12 +24349,6 @@
       <c r="L544" t="inlineStr"/>
       <c r="M544" t="inlineStr"/>
       <c r="N544" t="inlineStr"/>
-      <c r="O544" t="n">
-        <v>42.5930853</v>
-      </c>
-      <c r="P544" t="n">
-        <v>-114.1712347</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -27661,12 +24393,6 @@
       <c r="L545" t="inlineStr"/>
       <c r="M545" t="inlineStr"/>
       <c r="N545" t="inlineStr"/>
-      <c r="O545" t="n">
-        <v>43.6198034</v>
-      </c>
-      <c r="P545" t="n">
-        <v>-116.6480815</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -27711,12 +24437,6 @@
       <c r="L546" t="inlineStr"/>
       <c r="M546" t="inlineStr"/>
       <c r="N546" t="inlineStr"/>
-      <c r="O546" t="n">
-        <v>42.7951019</v>
-      </c>
-      <c r="P546" t="n">
-        <v>-112.832069</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -27761,12 +24481,6 @@
       <c r="L547" t="inlineStr"/>
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr"/>
-      <c r="O547" t="n">
-        <v>43.6744489</v>
-      </c>
-      <c r="P547" t="n">
-        <v>-116.6596856</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -27811,12 +24525,6 @@
       <c r="L548" t="inlineStr"/>
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr"/>
-      <c r="O548" t="n">
-        <v>46.8392778</v>
-      </c>
-      <c r="P548" t="n">
-        <v>-117.0244506</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -27861,12 +24569,6 @@
       <c r="L549" t="inlineStr"/>
       <c r="M549" t="inlineStr"/>
       <c r="N549" t="inlineStr"/>
-      <c r="O549" t="n">
-        <v>43.6519628</v>
-      </c>
-      <c r="P549" t="n">
-        <v>-116.6246027</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -27911,12 +24613,6 @@
       <c r="L550" t="inlineStr"/>
       <c r="M550" t="inlineStr"/>
       <c r="N550" t="inlineStr"/>
-      <c r="O550" t="n">
-        <v>42.7666335</v>
-      </c>
-      <c r="P550" t="n">
-        <v>-112.9133795</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -27961,12 +24657,6 @@
       <c r="L551" t="inlineStr"/>
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr"/>
-      <c r="O551" t="n">
-        <v>46.13740840000001</v>
-      </c>
-      <c r="P551" t="n">
-        <v>-115.9787009</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -28011,12 +24701,6 @@
       <c r="L552" t="inlineStr"/>
       <c r="M552" t="inlineStr"/>
       <c r="N552" t="inlineStr"/>
-      <c r="O552" t="n">
-        <v>46.08916</v>
-      </c>
-      <c r="P552" t="n">
-        <v>-115.9760847</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -28061,12 +24745,6 @@
       <c r="L553" t="inlineStr"/>
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr"/>
-      <c r="O553" t="n">
-        <v>46.09155699999999</v>
-      </c>
-      <c r="P553" t="n">
-        <v>-115.9762305</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -28111,12 +24789,6 @@
       <c r="L554" t="inlineStr"/>
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr"/>
-      <c r="O554" t="n">
-        <v>46.0526434</v>
-      </c>
-      <c r="P554" t="n">
-        <v>-115.971613</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -28161,12 +24833,6 @@
       <c r="L555" t="inlineStr"/>
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr"/>
-      <c r="O555" t="n">
-        <v>46.09155699999999</v>
-      </c>
-      <c r="P555" t="n">
-        <v>-115.9762305</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -28211,12 +24877,6 @@
       <c r="L556" t="inlineStr"/>
       <c r="M556" t="inlineStr"/>
       <c r="N556" t="inlineStr"/>
-      <c r="O556" t="n">
-        <v>46.4895866</v>
-      </c>
-      <c r="P556" t="n">
-        <v>-116.4534973</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -28261,12 +24921,6 @@
       <c r="L557" t="inlineStr"/>
       <c r="M557" t="inlineStr"/>
       <c r="N557" t="inlineStr"/>
-      <c r="O557" t="n">
-        <v>45.981544</v>
-      </c>
-      <c r="P557" t="n">
-        <v>-115.9645849</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -28311,12 +24965,6 @@
       <c r="L558" t="inlineStr"/>
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr"/>
-      <c r="O558" t="n">
-        <v>46.018871</v>
-      </c>
-      <c r="P558" t="n">
-        <v>-115.891353</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -28361,12 +25009,6 @@
       <c r="L559" t="inlineStr"/>
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr"/>
-      <c r="O559" t="n">
-        <v>45.9970964</v>
-      </c>
-      <c r="P559" t="n">
-        <v>-115.9362949</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -28411,12 +25053,6 @@
       <c r="L560" t="inlineStr"/>
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr"/>
-      <c r="O560" t="n">
-        <v>45.987996</v>
-      </c>
-      <c r="P560" t="n">
-        <v>-115.940063</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -28461,12 +25097,6 @@
       <c r="L561" t="inlineStr"/>
       <c r="M561" t="inlineStr"/>
       <c r="N561" t="inlineStr"/>
-      <c r="O561" t="n">
-        <v>45.996823</v>
-      </c>
-      <c r="P561" t="n">
-        <v>-115.951739</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -28511,12 +25141,6 @@
       <c r="L562" t="inlineStr"/>
       <c r="M562" t="inlineStr"/>
       <c r="N562" t="inlineStr"/>
-      <c r="O562" t="n">
-        <v>46.105176</v>
-      </c>
-      <c r="P562" t="n">
-        <v>-115.908665</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -28561,12 +25185,6 @@
       <c r="L563" t="inlineStr"/>
       <c r="M563" t="inlineStr"/>
       <c r="N563" t="inlineStr"/>
-      <c r="O563" t="n">
-        <v>45.9601028</v>
-      </c>
-      <c r="P563" t="n">
-        <v>-115.9605261</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -28611,12 +25229,6 @@
       <c r="L564" t="inlineStr"/>
       <c r="M564" t="inlineStr"/>
       <c r="N564" t="inlineStr"/>
-      <c r="O564" t="n">
-        <v>45.9767018</v>
-      </c>
-      <c r="P564" t="n">
-        <v>-115.9645863</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -28661,12 +25273,6 @@
       <c r="L565" t="inlineStr"/>
       <c r="M565" t="inlineStr"/>
       <c r="N565" t="inlineStr"/>
-      <c r="O565" t="n">
-        <v>45.9782107</v>
-      </c>
-      <c r="P565" t="n">
-        <v>-115.9640839</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -28711,12 +25317,6 @@
       <c r="L566" t="inlineStr"/>
       <c r="M566" t="inlineStr"/>
       <c r="N566" t="inlineStr"/>
-      <c r="O566" t="n">
-        <v>47.4743198</v>
-      </c>
-      <c r="P566" t="n">
-        <v>-115.9276059</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -28761,12 +25361,6 @@
       <c r="L567" t="inlineStr"/>
       <c r="M567" t="inlineStr"/>
       <c r="N567" t="inlineStr"/>
-      <c r="O567" t="n">
-        <v>43.2465807</v>
-      </c>
-      <c r="P567" t="n">
-        <v>-112.2584928</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -28811,12 +25405,6 @@
       <c r="L568" t="inlineStr"/>
       <c r="M568" t="inlineStr"/>
       <c r="N568" t="inlineStr"/>
-      <c r="O568" t="n">
-        <v>43.6436878</v>
-      </c>
-      <c r="P568" t="n">
-        <v>-116.6867677</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -28861,12 +25449,6 @@
       <c r="L569" t="inlineStr"/>
       <c r="M569" t="inlineStr"/>
       <c r="N569" t="inlineStr"/>
-      <c r="O569" t="n">
-        <v>42.86880499999999</v>
-      </c>
-      <c r="P569" t="n">
-        <v>-112.4366992</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -28911,12 +25493,6 @@
       <c r="L570" t="inlineStr"/>
       <c r="M570" t="inlineStr"/>
       <c r="N570" t="inlineStr"/>
-      <c r="O570" t="n">
-        <v>44.25058689999999</v>
-      </c>
-      <c r="P570" t="n">
-        <v>-116.9645342</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -28961,12 +25537,6 @@
       <c r="L571" t="inlineStr"/>
       <c r="M571" t="inlineStr"/>
       <c r="N571" t="inlineStr"/>
-      <c r="O571" t="n">
-        <v>42.7780156</v>
-      </c>
-      <c r="P571" t="n">
-        <v>-114.7025546</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -29011,12 +25581,6 @@
       <c r="L572" t="inlineStr"/>
       <c r="M572" t="inlineStr"/>
       <c r="N572" t="inlineStr"/>
-      <c r="O572" t="n">
-        <v>43.6336485</v>
-      </c>
-      <c r="P572" t="n">
-        <v>-116.783966</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -29061,12 +25625,6 @@
       <c r="L573" t="inlineStr"/>
       <c r="M573" t="inlineStr"/>
       <c r="N573" t="inlineStr"/>
-      <c r="O573" t="n">
-        <v>43.1291562</v>
-      </c>
-      <c r="P573" t="n">
-        <v>-115.6984149</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -29111,12 +25669,6 @@
       <c r="L574" t="inlineStr"/>
       <c r="M574" t="inlineStr"/>
       <c r="N574" t="inlineStr"/>
-      <c r="O574" t="n">
-        <v>43.5740633</v>
-      </c>
-      <c r="P574" t="n">
-        <v>-116.5905001</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -29161,12 +25713,6 @@
       <c r="L575" t="inlineStr"/>
       <c r="M575" t="inlineStr"/>
       <c r="N575" t="inlineStr"/>
-      <c r="O575" t="n">
-        <v>42.936561</v>
-      </c>
-      <c r="P575" t="n">
-        <v>-114.714174</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -29211,12 +25757,6 @@
       <c r="L576" t="inlineStr"/>
       <c r="M576" t="inlineStr"/>
       <c r="N576" t="inlineStr"/>
-      <c r="O576" t="n">
-        <v>46.73079449999999</v>
-      </c>
-      <c r="P576" t="n">
-        <v>-117.0100533</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -29261,12 +25801,6 @@
       <c r="L577" t="inlineStr"/>
       <c r="M577" t="inlineStr"/>
       <c r="N577" t="inlineStr"/>
-      <c r="O577" t="n">
-        <v>44.0810847</v>
-      </c>
-      <c r="P577" t="n">
-        <v>-116.9403517</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -29311,12 +25845,6 @@
       <c r="L578" t="inlineStr"/>
       <c r="M578" t="inlineStr"/>
       <c r="N578" t="inlineStr"/>
-      <c r="O578" t="n">
-        <v>43.4681527</v>
-      </c>
-      <c r="P578" t="n">
-        <v>-114.2669503</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -29361,12 +25889,6 @@
       <c r="L579" t="inlineStr"/>
       <c r="M579" t="inlineStr"/>
       <c r="N579" t="inlineStr"/>
-      <c r="O579" t="n">
-        <v>42.5285781</v>
-      </c>
-      <c r="P579" t="n">
-        <v>-113.7844584</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -29411,12 +25933,6 @@
       <c r="L580" t="inlineStr"/>
       <c r="M580" t="inlineStr"/>
       <c r="N580" t="inlineStr"/>
-      <c r="O580" t="n">
-        <v>43.5879993</v>
-      </c>
-      <c r="P580" t="n">
-        <v>-116.2245354</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -29461,12 +25977,6 @@
       <c r="L581" t="inlineStr"/>
       <c r="M581" t="inlineStr"/>
       <c r="N581" t="inlineStr"/>
-      <c r="O581" t="n">
-        <v>44.0825055</v>
-      </c>
-      <c r="P581" t="n">
-        <v>-116.9313376</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -29511,12 +26021,6 @@
       <c r="L582" t="inlineStr"/>
       <c r="M582" t="inlineStr"/>
       <c r="N582" t="inlineStr"/>
-      <c r="O582" t="n">
-        <v>43.623501</v>
-      </c>
-      <c r="P582" t="n">
-        <v>-116.227193</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -29561,12 +26065,6 @@
       <c r="L583" t="inlineStr"/>
       <c r="M583" t="inlineStr"/>
       <c r="N583" t="inlineStr"/>
-      <c r="O583" t="n">
-        <v>44.0815578</v>
-      </c>
-      <c r="P583" t="n">
-        <v>-116.9142115</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -29611,12 +26109,6 @@
       <c r="L584" t="inlineStr"/>
       <c r="M584" t="inlineStr"/>
       <c r="N584" t="inlineStr"/>
-      <c r="O584" t="n">
-        <v>42.8985701</v>
-      </c>
-      <c r="P584" t="n">
-        <v>-112.4743924</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -29661,12 +26153,6 @@
       <c r="L585" t="inlineStr"/>
       <c r="M585" t="inlineStr"/>
       <c r="N585" t="inlineStr"/>
-      <c r="O585" t="n">
-        <v>43.6755523</v>
-      </c>
-      <c r="P585" t="n">
-        <v>-115.9860099</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -29711,12 +26197,6 @@
       <c r="L586" t="inlineStr"/>
       <c r="M586" t="inlineStr"/>
       <c r="N586" t="inlineStr"/>
-      <c r="O586" t="n">
-        <v>42.7862441</v>
-      </c>
-      <c r="P586" t="n">
-        <v>-112.8469008</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -29761,12 +26241,6 @@
       <c r="L587" t="inlineStr"/>
       <c r="M587" t="inlineStr"/>
       <c r="N587" t="inlineStr"/>
-      <c r="O587" t="n">
-        <v>43.5864481</v>
-      </c>
-      <c r="P587" t="n">
-        <v>-116.6003693</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -29811,12 +26285,6 @@
       <c r="L588" t="inlineStr"/>
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="inlineStr"/>
-      <c r="O588" t="n">
-        <v>43.6464496</v>
-      </c>
-      <c r="P588" t="n">
-        <v>-116.6938759</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -29861,12 +26329,6 @@
       <c r="L589" t="inlineStr"/>
       <c r="M589" t="inlineStr"/>
       <c r="N589" t="inlineStr"/>
-      <c r="O589" t="n">
-        <v>47.6892933</v>
-      </c>
-      <c r="P589" t="n">
-        <v>-116.7969</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -29919,12 +26381,6 @@
       <c r="L590" t="inlineStr"/>
       <c r="M590" t="inlineStr"/>
       <c r="N590" t="inlineStr"/>
-      <c r="O590" t="n">
-        <v>43.488449</v>
-      </c>
-      <c r="P590" t="n">
-        <v>-112.034937</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
